--- a/docs/products.xlsx
+++ b/docs/products.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mjhua\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E3B05E0E-EA8C-493C-9686-0DEA50BA788C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A86959DD-C8A2-41B0-B272-A8BE81E3DDAA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2170" yWindow="730" windowWidth="27130" windowHeight="17770" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21220" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1096" uniqueCount="328">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1098" uniqueCount="330">
   <si>
     <t>id</t>
   </si>
@@ -1004,13 +1004,19 @@
   </si>
   <si>
     <t>clooney-ranunculu-40.jpg</t>
+  </si>
+  <si>
+    <t>stemBun</t>
+  </si>
+  <si>
+    <t>totalUnits</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1032,6 +1038,11 @@
       <color theme="10"/>
       <name val="Calibri"/>
       <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color indexed="8"/>
+      <name val="SansSerif"/>
     </font>
   </fonts>
   <fills count="2">
@@ -1073,12 +1084,15 @@
       <protection locked="0"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="3" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hipervínculo" xfId="1" builtinId="8"/>
@@ -1384,21 +1398,24 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:M121"/>
+  <dimension ref="A1:O127"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="J42" sqref="J42"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H2" sqref="H2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.7265625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.7265625" defaultRowHeight="14.5"/>
   <cols>
     <col min="1" max="1" width="26.6328125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="22.81640625" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="61.54296875" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="41.453125" customWidth="1"/>
+    <col min="7" max="7" width="9.1796875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="11.90625" customWidth="1"/>
+    <col min="11" max="11" width="11.90625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="61.54296875" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="41.453125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:15">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1418,28 +1435,34 @@
         <v>5</v>
       </c>
       <c r="G1" s="1" t="s">
+        <v>328</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>329</v>
+      </c>
+      <c r="I1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="J1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="K1" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="L1" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="M1" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="N1" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="M1" s="1" t="s">
+      <c r="O1" s="1" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:15">
       <c r="A2" t="s">
         <v>13</v>
       </c>
@@ -1458,29 +1481,35 @@
       <c r="F2" t="s">
         <v>220</v>
       </c>
-      <c r="G2">
+      <c r="G2" s="3">
+        <v>20</v>
+      </c>
+      <c r="H2" s="3">
+        <v>20</v>
+      </c>
+      <c r="I2">
         <v>2.39</v>
       </c>
-      <c r="H2">
+      <c r="J2">
         <v>486</v>
       </c>
-      <c r="I2" t="s">
+      <c r="K2" t="s">
         <v>225</v>
       </c>
-      <c r="J2" s="2" t="s">
+      <c r="L2" s="2" t="s">
         <v>288</v>
       </c>
-      <c r="K2">
+      <c r="M2">
         <v>60</v>
       </c>
-      <c r="L2" t="s">
+      <c r="N2" t="s">
         <v>234</v>
       </c>
-      <c r="M2" t="s">
+      <c r="O2" t="s">
         <v>237</v>
       </c>
     </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:15">
       <c r="A3" t="s">
         <v>14</v>
       </c>
@@ -1499,26 +1528,32 @@
       <c r="F3" t="s">
         <v>221</v>
       </c>
-      <c r="G3">
+      <c r="G3" s="3">
+        <v>12</v>
+      </c>
+      <c r="H3" s="3">
+        <v>24</v>
+      </c>
+      <c r="I3">
         <v>2.64</v>
       </c>
-      <c r="H3">
+      <c r="J3">
         <v>479</v>
       </c>
-      <c r="I3" t="s">
+      <c r="K3" t="s">
         <v>226</v>
       </c>
-      <c r="J3" s="2" t="s">
+      <c r="L3" s="2" t="s">
         <v>289</v>
       </c>
-      <c r="K3">
+      <c r="M3">
         <v>50</v>
       </c>
-      <c r="L3" t="s">
+      <c r="N3" t="s">
         <v>235</v>
       </c>
     </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:15">
       <c r="A4" t="s">
         <v>15</v>
       </c>
@@ -1537,29 +1572,35 @@
       <c r="F4" t="s">
         <v>221</v>
       </c>
-      <c r="G4">
+      <c r="G4" s="3">
+        <v>12</v>
+      </c>
+      <c r="H4" s="3">
+        <v>24</v>
+      </c>
+      <c r="I4">
         <v>6.32</v>
       </c>
-      <c r="H4">
+      <c r="J4">
         <v>150</v>
       </c>
-      <c r="I4" t="s">
+      <c r="K4" t="s">
         <v>227</v>
       </c>
-      <c r="J4" s="2" t="s">
+      <c r="L4" s="2" t="s">
         <v>294</v>
       </c>
-      <c r="K4">
+      <c r="M4">
         <v>80</v>
       </c>
-      <c r="L4" t="s">
+      <c r="N4" t="s">
         <v>234</v>
       </c>
-      <c r="M4" t="s">
+      <c r="O4" t="s">
         <v>238</v>
       </c>
     </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:15">
       <c r="A5" t="s">
         <v>16</v>
       </c>
@@ -1578,29 +1619,35 @@
       <c r="F5" t="s">
         <v>220</v>
       </c>
-      <c r="G5">
+      <c r="G5" s="3">
+        <v>7</v>
+      </c>
+      <c r="H5" s="3">
+        <v>7</v>
+      </c>
+      <c r="I5">
         <v>3.07</v>
       </c>
-      <c r="H5">
+      <c r="J5">
         <v>111</v>
       </c>
-      <c r="I5" t="s">
+      <c r="K5" t="s">
         <v>228</v>
       </c>
-      <c r="J5" s="2" t="s">
+      <c r="L5" s="2" t="s">
         <v>290</v>
       </c>
-      <c r="K5">
+      <c r="M5">
         <v>70</v>
       </c>
-      <c r="L5" t="s">
+      <c r="N5" t="s">
         <v>234</v>
       </c>
-      <c r="M5" t="s">
+      <c r="O5" t="s">
         <v>239</v>
       </c>
     </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:15">
       <c r="A6" t="s">
         <v>17</v>
       </c>
@@ -1619,29 +1666,35 @@
       <c r="F6" t="s">
         <v>221</v>
       </c>
-      <c r="G6">
+      <c r="G6" s="3">
+        <v>8</v>
+      </c>
+      <c r="H6" s="3">
+        <v>16</v>
+      </c>
+      <c r="I6">
         <v>2.65</v>
       </c>
-      <c r="H6">
+      <c r="J6">
         <v>210</v>
       </c>
-      <c r="I6" t="s">
+      <c r="K6" t="s">
         <v>229</v>
       </c>
-      <c r="J6" s="2" t="s">
+      <c r="L6" s="2" t="s">
         <v>291</v>
       </c>
-      <c r="K6">
+      <c r="M6">
         <v>50</v>
       </c>
-      <c r="L6" t="s">
+      <c r="N6" t="s">
         <v>235</v>
       </c>
-      <c r="M6" t="s">
+      <c r="O6" t="s">
         <v>240</v>
       </c>
     </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:15">
       <c r="A7" t="s">
         <v>18</v>
       </c>
@@ -1660,26 +1713,32 @@
       <c r="F7" t="s">
         <v>220</v>
       </c>
-      <c r="G7">
+      <c r="G7" s="3">
+        <v>5</v>
+      </c>
+      <c r="H7" s="3">
+        <v>5</v>
+      </c>
+      <c r="I7">
         <v>4.49</v>
       </c>
-      <c r="H7">
+      <c r="J7">
         <v>357</v>
       </c>
-      <c r="I7" t="s">
+      <c r="K7" t="s">
         <v>228</v>
       </c>
-      <c r="J7" s="2" t="s">
+      <c r="L7" s="2" t="s">
         <v>292</v>
       </c>
-      <c r="K7">
+      <c r="M7">
         <v>80</v>
       </c>
-      <c r="L7" t="s">
+      <c r="N7" t="s">
         <v>235</v>
       </c>
     </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:15">
       <c r="A8" t="s">
         <v>19</v>
       </c>
@@ -1698,26 +1757,32 @@
       <c r="F8" t="s">
         <v>222</v>
       </c>
-      <c r="G8">
+      <c r="G8" s="3">
+        <v>28</v>
+      </c>
+      <c r="H8" s="3">
+        <v>7</v>
+      </c>
+      <c r="I8">
         <v>7.94</v>
       </c>
-      <c r="H8">
+      <c r="J8">
         <v>155</v>
       </c>
-      <c r="I8" t="s">
+      <c r="K8" t="s">
         <v>228</v>
       </c>
-      <c r="J8" s="2" t="s">
+      <c r="L8" s="2" t="s">
         <v>293</v>
       </c>
-      <c r="K8">
+      <c r="M8">
         <v>60</v>
       </c>
-      <c r="L8" t="s">
+      <c r="N8" t="s">
         <v>234</v>
       </c>
     </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:15">
       <c r="A9" t="s">
         <v>20</v>
       </c>
@@ -1736,26 +1801,32 @@
       <c r="F9" t="s">
         <v>220</v>
       </c>
-      <c r="G9">
+      <c r="G9" s="3">
+        <v>25</v>
+      </c>
+      <c r="H9" s="3">
+        <v>25</v>
+      </c>
+      <c r="I9">
         <v>9.33</v>
       </c>
-      <c r="H9">
+      <c r="J9">
         <v>60</v>
       </c>
-      <c r="I9" t="s">
+      <c r="K9" t="s">
         <v>230</v>
       </c>
-      <c r="J9" s="2" t="s">
+      <c r="L9" s="2" t="s">
         <v>295</v>
       </c>
-      <c r="K9">
+      <c r="M9">
         <v>70</v>
       </c>
-      <c r="L9" t="s">
+      <c r="N9" t="s">
         <v>234</v>
       </c>
     </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:15">
       <c r="A10" t="s">
         <v>21</v>
       </c>
@@ -1774,26 +1845,32 @@
       <c r="F10" t="s">
         <v>220</v>
       </c>
-      <c r="G10">
+      <c r="G10" s="3">
+        <v>10</v>
+      </c>
+      <c r="H10" s="3">
+        <v>10</v>
+      </c>
+      <c r="I10">
         <v>7.56</v>
       </c>
-      <c r="H10">
+      <c r="J10">
         <v>379</v>
       </c>
-      <c r="I10" t="s">
+      <c r="K10" t="s">
         <v>230</v>
       </c>
-      <c r="J10" s="2" t="s">
+      <c r="L10" s="2" t="s">
         <v>296</v>
       </c>
-      <c r="K10">
+      <c r="M10">
         <v>60</v>
       </c>
-      <c r="L10" t="s">
+      <c r="N10" t="s">
         <v>234</v>
       </c>
     </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:15">
       <c r="A11" t="s">
         <v>22</v>
       </c>
@@ -1812,29 +1889,35 @@
       <c r="F11" t="s">
         <v>223</v>
       </c>
-      <c r="G11">
+      <c r="G11" s="3">
+        <v>10</v>
+      </c>
+      <c r="H11" s="3">
+        <v>5</v>
+      </c>
+      <c r="I11">
         <v>3.11</v>
       </c>
-      <c r="H11">
+      <c r="J11">
         <v>417</v>
       </c>
-      <c r="I11" t="s">
+      <c r="K11" t="s">
         <v>230</v>
       </c>
-      <c r="J11" s="2" t="s">
+      <c r="L11" s="2" t="s">
         <v>297</v>
       </c>
-      <c r="K11">
+      <c r="M11">
         <v>60</v>
       </c>
-      <c r="L11" t="s">
+      <c r="N11" t="s">
         <v>236</v>
       </c>
-      <c r="M11" t="s">
+      <c r="O11" t="s">
         <v>241</v>
       </c>
     </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:15">
       <c r="A12" t="s">
         <v>23</v>
       </c>
@@ -1853,29 +1936,35 @@
       <c r="F12" t="s">
         <v>220</v>
       </c>
-      <c r="G12">
+      <c r="G12" s="3">
+        <v>12</v>
+      </c>
+      <c r="H12" s="3">
+        <v>12</v>
+      </c>
+      <c r="I12">
         <v>3.23</v>
       </c>
-      <c r="H12">
+      <c r="J12">
         <v>256</v>
       </c>
-      <c r="I12" t="s">
+      <c r="K12" t="s">
         <v>231</v>
       </c>
-      <c r="J12" s="2" t="s">
+      <c r="L12" s="2" t="s">
         <v>298</v>
       </c>
-      <c r="K12">
+      <c r="M12">
         <v>60</v>
       </c>
-      <c r="L12" t="s">
+      <c r="N12" t="s">
         <v>236</v>
       </c>
-      <c r="M12" t="s">
+      <c r="O12" t="s">
         <v>242</v>
       </c>
     </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:15">
       <c r="A13" t="s">
         <v>24</v>
       </c>
@@ -1894,29 +1983,35 @@
       <c r="F13" t="s">
         <v>221</v>
       </c>
-      <c r="G13">
+      <c r="G13" s="3">
+        <v>15</v>
+      </c>
+      <c r="H13" s="3">
+        <v>30</v>
+      </c>
+      <c r="I13">
         <v>8.2200000000000006</v>
       </c>
-      <c r="H13">
+      <c r="J13">
         <v>63</v>
       </c>
-      <c r="I13" t="s">
+      <c r="K13" t="s">
         <v>232</v>
       </c>
-      <c r="J13" s="2" t="s">
+      <c r="L13" s="2" t="s">
         <v>299</v>
       </c>
-      <c r="K13">
+      <c r="M13">
         <v>70</v>
       </c>
-      <c r="L13" t="s">
+      <c r="N13" t="s">
         <v>235</v>
       </c>
-      <c r="M13" t="s">
+      <c r="O13" t="s">
         <v>243</v>
       </c>
     </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:15">
       <c r="A14" t="s">
         <v>25</v>
       </c>
@@ -1935,29 +2030,35 @@
       <c r="F14" t="s">
         <v>220</v>
       </c>
-      <c r="G14">
+      <c r="G14" s="3">
+        <v>12</v>
+      </c>
+      <c r="H14" s="3">
+        <v>12</v>
+      </c>
+      <c r="I14">
         <v>8.74</v>
       </c>
-      <c r="H14">
+      <c r="J14">
         <v>378</v>
       </c>
-      <c r="I14" t="s">
+      <c r="K14" t="s">
         <v>228</v>
       </c>
-      <c r="J14" s="2" t="s">
+      <c r="L14" s="2" t="s">
         <v>300</v>
       </c>
-      <c r="K14">
+      <c r="M14">
         <v>60</v>
       </c>
-      <c r="L14" t="s">
+      <c r="N14" t="s">
         <v>236</v>
       </c>
-      <c r="M14" t="s">
+      <c r="O14" t="s">
         <v>244</v>
       </c>
     </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:15">
       <c r="A15" t="s">
         <v>26</v>
       </c>
@@ -1976,26 +2077,32 @@
       <c r="F15" t="s">
         <v>221</v>
       </c>
-      <c r="G15">
+      <c r="G15" s="3">
+        <v>8</v>
+      </c>
+      <c r="H15" s="3">
+        <v>16</v>
+      </c>
+      <c r="I15">
         <v>3.21</v>
       </c>
-      <c r="H15">
+      <c r="J15">
         <v>314</v>
       </c>
-      <c r="I15" t="s">
+      <c r="K15" t="s">
         <v>230</v>
       </c>
-      <c r="J15" s="2" t="s">
+      <c r="L15" s="2" t="s">
         <v>301</v>
       </c>
-      <c r="K15">
+      <c r="M15">
         <v>50</v>
       </c>
-      <c r="L15" t="s">
+      <c r="N15" t="s">
         <v>234</v>
       </c>
     </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:15">
       <c r="A16" t="s">
         <v>27</v>
       </c>
@@ -2014,26 +2121,32 @@
       <c r="F16" t="s">
         <v>222</v>
       </c>
-      <c r="G16">
+      <c r="G16" s="3">
+        <v>44</v>
+      </c>
+      <c r="H16" s="3">
+        <v>11</v>
+      </c>
+      <c r="I16">
         <v>9.7799999999999994</v>
       </c>
-      <c r="H16">
+      <c r="J16">
         <v>239</v>
       </c>
-      <c r="I16" t="s">
+      <c r="K16" t="s">
         <v>230</v>
       </c>
-      <c r="J16" s="2" t="s">
+      <c r="L16" s="2" t="s">
         <v>302</v>
       </c>
-      <c r="K16">
+      <c r="M16">
         <v>80</v>
       </c>
-      <c r="L16" t="s">
+      <c r="N16" t="s">
         <v>236</v>
       </c>
     </row>
-    <row r="17" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:15">
       <c r="A17" t="s">
         <v>28</v>
       </c>
@@ -2052,29 +2165,35 @@
       <c r="F17" t="s">
         <v>221</v>
       </c>
-      <c r="G17">
+      <c r="G17" s="3">
+        <v>12</v>
+      </c>
+      <c r="H17" s="3">
+        <v>24</v>
+      </c>
+      <c r="I17">
         <v>1.72</v>
       </c>
-      <c r="H17">
+      <c r="J17">
         <v>203</v>
       </c>
-      <c r="I17" t="s">
+      <c r="K17" t="s">
         <v>229</v>
       </c>
-      <c r="J17" s="2" t="s">
+      <c r="L17" s="2" t="s">
         <v>303</v>
       </c>
-      <c r="K17">
+      <c r="M17">
         <v>60</v>
       </c>
-      <c r="L17" t="s">
+      <c r="N17" t="s">
         <v>236</v>
       </c>
-      <c r="M17" t="s">
+      <c r="O17" t="s">
         <v>245</v>
       </c>
     </row>
-    <row r="18" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:15">
       <c r="A18" t="s">
         <v>29</v>
       </c>
@@ -2093,29 +2212,35 @@
       <c r="F18" t="s">
         <v>224</v>
       </c>
-      <c r="G18">
+      <c r="G18" s="3">
+        <v>20</v>
+      </c>
+      <c r="H18" s="3">
+        <v>1</v>
+      </c>
+      <c r="I18">
         <v>2.67</v>
       </c>
-      <c r="H18">
+      <c r="J18">
         <v>368</v>
       </c>
-      <c r="I18" t="s">
+      <c r="K18" t="s">
         <v>228</v>
       </c>
-      <c r="J18" s="2" t="s">
+      <c r="L18" s="2" t="s">
         <v>304</v>
       </c>
-      <c r="K18">
+      <c r="M18">
         <v>60</v>
       </c>
-      <c r="L18" t="s">
+      <c r="N18" t="s">
         <v>234</v>
       </c>
-      <c r="M18" t="s">
+      <c r="O18" t="s">
         <v>246</v>
       </c>
     </row>
-    <row r="19" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:15">
       <c r="A19" t="s">
         <v>30</v>
       </c>
@@ -2134,26 +2259,32 @@
       <c r="F19" t="s">
         <v>223</v>
       </c>
-      <c r="G19">
+      <c r="G19" s="3">
+        <v>4</v>
+      </c>
+      <c r="H19" s="3">
+        <v>2</v>
+      </c>
+      <c r="I19">
         <v>8.5299999999999994</v>
       </c>
-      <c r="H19">
+      <c r="J19">
         <v>286</v>
       </c>
-      <c r="I19" t="s">
+      <c r="K19" t="s">
         <v>230</v>
       </c>
-      <c r="J19" s="2" t="s">
+      <c r="L19" s="2" t="s">
         <v>305</v>
       </c>
-      <c r="K19">
+      <c r="M19">
         <v>70</v>
       </c>
-      <c r="L19" t="s">
+      <c r="N19" t="s">
         <v>236</v>
       </c>
     </row>
-    <row r="20" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:15">
       <c r="A20" t="s">
         <v>31</v>
       </c>
@@ -2172,26 +2303,32 @@
       <c r="F20" t="s">
         <v>221</v>
       </c>
-      <c r="G20">
+      <c r="G20" s="3">
+        <v>12</v>
+      </c>
+      <c r="H20" s="3">
+        <v>24</v>
+      </c>
+      <c r="I20">
         <v>3.34</v>
       </c>
-      <c r="H20">
+      <c r="J20">
         <v>404</v>
       </c>
-      <c r="I20" t="s">
+      <c r="K20" t="s">
         <v>228</v>
       </c>
-      <c r="J20" s="2" t="s">
+      <c r="L20" s="2" t="s">
         <v>306</v>
       </c>
-      <c r="K20">
+      <c r="M20">
         <v>70</v>
       </c>
-      <c r="L20" t="s">
+      <c r="N20" t="s">
         <v>236</v>
       </c>
     </row>
-    <row r="21" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:15">
       <c r="A21" t="s">
         <v>32</v>
       </c>
@@ -2210,26 +2347,32 @@
       <c r="F21" t="s">
         <v>224</v>
       </c>
-      <c r="G21">
+      <c r="G21" s="3">
+        <v>5</v>
+      </c>
+      <c r="H21" s="3">
+        <v>1</v>
+      </c>
+      <c r="I21">
         <v>8.6999999999999993</v>
       </c>
-      <c r="H21">
+      <c r="J21">
         <v>73</v>
       </c>
-      <c r="I21" t="s">
+      <c r="K21" t="s">
         <v>227</v>
       </c>
-      <c r="J21" s="2" t="s">
+      <c r="L21" s="2" t="s">
         <v>307</v>
       </c>
-      <c r="K21">
+      <c r="M21">
         <v>40</v>
       </c>
-      <c r="L21" t="s">
+      <c r="N21" t="s">
         <v>234</v>
       </c>
     </row>
-    <row r="22" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:15">
       <c r="A22" t="s">
         <v>33</v>
       </c>
@@ -2248,26 +2391,32 @@
       <c r="F22" t="s">
         <v>224</v>
       </c>
-      <c r="G22">
+      <c r="G22" s="3">
+        <v>5</v>
+      </c>
+      <c r="H22" s="3">
+        <v>1</v>
+      </c>
+      <c r="I22">
         <v>4.34</v>
       </c>
-      <c r="H22">
+      <c r="J22">
         <v>492</v>
       </c>
-      <c r="I22" t="s">
+      <c r="K22" t="s">
         <v>225</v>
       </c>
-      <c r="J22" s="2" t="s">
+      <c r="L22" s="2" t="s">
         <v>308</v>
       </c>
-      <c r="K22">
+      <c r="M22">
         <v>60</v>
       </c>
-      <c r="L22" t="s">
+      <c r="N22" t="s">
         <v>236</v>
       </c>
     </row>
-    <row r="23" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:15">
       <c r="A23" t="s">
         <v>34</v>
       </c>
@@ -2286,29 +2435,35 @@
       <c r="F23" t="s">
         <v>220</v>
       </c>
-      <c r="G23">
+      <c r="G23" s="3">
+        <v>25</v>
+      </c>
+      <c r="H23" s="3">
+        <v>25</v>
+      </c>
+      <c r="I23">
         <v>3.01</v>
       </c>
-      <c r="H23">
+      <c r="J23">
         <v>180</v>
       </c>
-      <c r="I23" t="s">
+      <c r="K23" t="s">
         <v>229</v>
       </c>
-      <c r="J23" s="2" t="s">
+      <c r="L23" s="2" t="s">
         <v>309</v>
       </c>
-      <c r="K23">
+      <c r="M23">
         <v>70</v>
       </c>
-      <c r="L23" t="s">
+      <c r="N23" t="s">
         <v>236</v>
       </c>
-      <c r="M23" t="s">
+      <c r="O23" t="s">
         <v>247</v>
       </c>
     </row>
-    <row r="24" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:15">
       <c r="A24" t="s">
         <v>35</v>
       </c>
@@ -2327,29 +2482,35 @@
       <c r="F24" t="s">
         <v>220</v>
       </c>
-      <c r="G24">
+      <c r="G24" s="3">
+        <v>22</v>
+      </c>
+      <c r="H24" s="3">
+        <v>22</v>
+      </c>
+      <c r="I24">
         <v>5.37</v>
       </c>
-      <c r="H24">
+      <c r="J24">
         <v>283</v>
       </c>
-      <c r="I24" t="s">
+      <c r="K24" t="s">
         <v>229</v>
       </c>
-      <c r="J24" s="2" t="s">
+      <c r="L24" s="2" t="s">
         <v>310</v>
       </c>
-      <c r="K24">
+      <c r="M24">
         <v>60</v>
       </c>
-      <c r="L24" t="s">
+      <c r="N24" t="s">
         <v>234</v>
       </c>
-      <c r="M24" t="s">
+      <c r="O24" t="s">
         <v>247</v>
       </c>
     </row>
-    <row r="25" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:15">
       <c r="A25" t="s">
         <v>36</v>
       </c>
@@ -2368,26 +2529,32 @@
       <c r="F25" t="s">
         <v>224</v>
       </c>
-      <c r="G25">
+      <c r="G25" s="3">
+        <v>12</v>
+      </c>
+      <c r="H25" s="3">
+        <v>1</v>
+      </c>
+      <c r="I25">
         <v>7.91</v>
       </c>
-      <c r="H25">
+      <c r="J25">
         <v>36</v>
       </c>
-      <c r="I25" t="s">
+      <c r="K25" t="s">
         <v>227</v>
       </c>
-      <c r="J25" s="2" t="s">
+      <c r="L25" s="2" t="s">
         <v>311</v>
       </c>
-      <c r="K25">
+      <c r="M25">
         <v>70</v>
       </c>
-      <c r="L25" t="s">
+      <c r="N25" t="s">
         <v>235</v>
       </c>
     </row>
-    <row r="26" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:15">
       <c r="A26" t="s">
         <v>37</v>
       </c>
@@ -2406,26 +2573,32 @@
       <c r="F26" t="s">
         <v>222</v>
       </c>
-      <c r="G26">
+      <c r="G26" s="3">
+        <v>20</v>
+      </c>
+      <c r="H26" s="3">
+        <v>5</v>
+      </c>
+      <c r="I26">
         <v>9.57</v>
       </c>
-      <c r="H26">
+      <c r="J26">
         <v>368</v>
       </c>
-      <c r="I26" t="s">
+      <c r="K26" t="s">
         <v>227</v>
       </c>
-      <c r="J26" s="2" t="s">
+      <c r="L26" s="2" t="s">
         <v>312</v>
       </c>
-      <c r="K26">
+      <c r="M26">
         <v>40</v>
       </c>
-      <c r="L26" t="s">
+      <c r="N26" t="s">
         <v>235</v>
       </c>
     </row>
-    <row r="27" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:15">
       <c r="A27" t="s">
         <v>38</v>
       </c>
@@ -2444,29 +2617,35 @@
       <c r="F27" t="s">
         <v>222</v>
       </c>
-      <c r="G27">
+      <c r="G27" s="3">
+        <v>20</v>
+      </c>
+      <c r="H27" s="3">
+        <v>5</v>
+      </c>
+      <c r="I27">
         <v>3.84</v>
       </c>
-      <c r="H27">
+      <c r="J27">
         <v>147</v>
       </c>
-      <c r="I27" t="s">
+      <c r="K27" t="s">
         <v>232</v>
       </c>
-      <c r="J27" s="2" t="s">
+      <c r="L27" s="2" t="s">
         <v>313</v>
       </c>
-      <c r="K27">
+      <c r="M27">
         <v>50</v>
       </c>
-      <c r="L27" t="s">
+      <c r="N27" t="s">
         <v>236</v>
       </c>
-      <c r="M27" t="s">
+      <c r="O27" t="s">
         <v>248</v>
       </c>
     </row>
-    <row r="28" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:15">
       <c r="A28" t="s">
         <v>39</v>
       </c>
@@ -2485,26 +2664,32 @@
       <c r="F28" t="s">
         <v>224</v>
       </c>
-      <c r="G28">
+      <c r="G28" s="3">
+        <v>5</v>
+      </c>
+      <c r="H28" s="3">
+        <v>1</v>
+      </c>
+      <c r="I28">
         <v>3.65</v>
       </c>
-      <c r="H28">
+      <c r="J28">
         <v>493</v>
       </c>
-      <c r="I28" t="s">
+      <c r="K28" t="s">
         <v>226</v>
       </c>
-      <c r="J28" s="2" t="s">
+      <c r="L28" s="2" t="s">
         <v>314</v>
       </c>
-      <c r="K28">
+      <c r="M28">
         <v>40</v>
       </c>
-      <c r="L28" t="s">
+      <c r="N28" t="s">
         <v>236</v>
       </c>
     </row>
-    <row r="29" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:15">
       <c r="A29" t="s">
         <v>40</v>
       </c>
@@ -2523,29 +2708,35 @@
       <c r="F29" t="s">
         <v>224</v>
       </c>
-      <c r="G29">
+      <c r="G29" s="3">
+        <v>5</v>
+      </c>
+      <c r="H29" s="3">
+        <v>1</v>
+      </c>
+      <c r="I29">
         <v>3.3</v>
       </c>
-      <c r="H29">
+      <c r="J29">
         <v>427</v>
       </c>
-      <c r="I29" t="s">
+      <c r="K29" t="s">
         <v>233</v>
       </c>
-      <c r="J29" s="2" t="s">
+      <c r="L29" s="2" t="s">
         <v>315</v>
       </c>
-      <c r="K29">
+      <c r="M29">
         <v>80</v>
       </c>
-      <c r="L29" t="s">
+      <c r="N29" t="s">
         <v>235</v>
       </c>
-      <c r="M29" t="s">
+      <c r="O29" t="s">
         <v>249</v>
       </c>
     </row>
-    <row r="30" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:15">
       <c r="A30" t="s">
         <v>41</v>
       </c>
@@ -2564,29 +2755,35 @@
       <c r="F30" t="s">
         <v>221</v>
       </c>
-      <c r="G30">
+      <c r="G30" s="3">
+        <v>12</v>
+      </c>
+      <c r="H30" s="3">
+        <v>24</v>
+      </c>
+      <c r="I30">
         <v>6.2</v>
       </c>
-      <c r="H30">
+      <c r="J30">
         <v>307</v>
       </c>
-      <c r="I30" t="s">
+      <c r="K30" t="s">
         <v>227</v>
       </c>
-      <c r="J30" s="2" t="s">
+      <c r="L30" s="2" t="s">
         <v>316</v>
       </c>
-      <c r="K30">
+      <c r="M30">
         <v>60</v>
       </c>
-      <c r="L30" t="s">
+      <c r="N30" t="s">
         <v>236</v>
       </c>
-      <c r="M30" t="s">
+      <c r="O30" t="s">
         <v>248</v>
       </c>
     </row>
-    <row r="31" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:15">
       <c r="A31" t="s">
         <v>42</v>
       </c>
@@ -2605,29 +2802,35 @@
       <c r="F31" t="s">
         <v>224</v>
       </c>
-      <c r="G31">
+      <c r="G31" s="3">
+        <v>25</v>
+      </c>
+      <c r="H31" s="3">
+        <v>1</v>
+      </c>
+      <c r="I31">
         <v>2.13</v>
       </c>
-      <c r="H31">
+      <c r="J31">
         <v>283</v>
       </c>
-      <c r="I31" t="s">
+      <c r="K31" t="s">
         <v>229</v>
       </c>
-      <c r="J31" s="2" t="s">
+      <c r="L31" s="2" t="s">
         <v>317</v>
       </c>
-      <c r="K31">
+      <c r="M31">
         <v>80</v>
       </c>
-      <c r="L31" t="s">
+      <c r="N31" t="s">
         <v>236</v>
       </c>
-      <c r="M31" t="s">
+      <c r="O31" t="s">
         <v>250</v>
       </c>
     </row>
-    <row r="32" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:15">
       <c r="A32" t="s">
         <v>43</v>
       </c>
@@ -2646,29 +2849,35 @@
       <c r="F32" t="s">
         <v>220</v>
       </c>
-      <c r="G32">
+      <c r="G32" s="3">
+        <v>10</v>
+      </c>
+      <c r="H32" s="3">
+        <v>10</v>
+      </c>
+      <c r="I32">
         <v>9.7200000000000006</v>
       </c>
-      <c r="H32">
+      <c r="J32">
         <v>125</v>
       </c>
-      <c r="I32" t="s">
+      <c r="K32" t="s">
         <v>231</v>
       </c>
-      <c r="J32" s="2" t="s">
+      <c r="L32" s="2" t="s">
         <v>318</v>
       </c>
-      <c r="K32">
+      <c r="M32">
         <v>60</v>
       </c>
-      <c r="L32" t="s">
+      <c r="N32" t="s">
         <v>236</v>
       </c>
-      <c r="M32" t="s">
+      <c r="O32" t="s">
         <v>251</v>
       </c>
     </row>
-    <row r="33" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:15">
       <c r="A33" t="s">
         <v>44</v>
       </c>
@@ -2687,26 +2896,32 @@
       <c r="F33" t="s">
         <v>222</v>
       </c>
-      <c r="G33">
+      <c r="G33" s="3">
+        <v>28</v>
+      </c>
+      <c r="H33" s="3">
+        <v>7</v>
+      </c>
+      <c r="I33">
         <v>7.19</v>
       </c>
-      <c r="H33">
+      <c r="J33">
         <v>148</v>
       </c>
-      <c r="I33" t="s">
+      <c r="K33" t="s">
         <v>233</v>
       </c>
-      <c r="J33" s="2" t="s">
+      <c r="L33" s="2" t="s">
         <v>319</v>
       </c>
-      <c r="K33">
+      <c r="M33">
         <v>50</v>
       </c>
-      <c r="L33" t="s">
+      <c r="N33" t="s">
         <v>235</v>
       </c>
     </row>
-    <row r="34" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:15">
       <c r="A34" t="s">
         <v>45</v>
       </c>
@@ -2725,29 +2940,35 @@
       <c r="F34" t="s">
         <v>220</v>
       </c>
-      <c r="G34">
+      <c r="G34" s="3">
+        <v>25</v>
+      </c>
+      <c r="H34" s="3">
+        <v>25</v>
+      </c>
+      <c r="I34">
         <v>3.51</v>
       </c>
-      <c r="H34">
+      <c r="J34">
         <v>291</v>
       </c>
-      <c r="I34" t="s">
+      <c r="K34" t="s">
         <v>228</v>
       </c>
-      <c r="J34" s="2" t="s">
+      <c r="L34" s="2" t="s">
         <v>320</v>
       </c>
-      <c r="K34">
+      <c r="M34">
         <v>80</v>
       </c>
-      <c r="L34" t="s">
+      <c r="N34" t="s">
         <v>234</v>
       </c>
-      <c r="M34" t="s">
+      <c r="O34" t="s">
         <v>252</v>
       </c>
     </row>
-    <row r="35" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:15">
       <c r="A35" t="s">
         <v>46</v>
       </c>
@@ -2766,29 +2987,35 @@
       <c r="F35" t="s">
         <v>220</v>
       </c>
-      <c r="G35">
+      <c r="G35" s="3">
+        <v>25</v>
+      </c>
+      <c r="H35" s="3">
+        <v>25</v>
+      </c>
+      <c r="I35">
         <v>2.0299999999999998</v>
       </c>
-      <c r="H35">
+      <c r="J35">
         <v>88</v>
       </c>
-      <c r="I35" t="s">
+      <c r="K35" t="s">
         <v>229</v>
       </c>
-      <c r="J35" s="2" t="s">
+      <c r="L35" s="2" t="s">
         <v>321</v>
       </c>
-      <c r="K35">
+      <c r="M35">
         <v>40</v>
       </c>
-      <c r="L35" t="s">
+      <c r="N35" t="s">
         <v>235</v>
       </c>
-      <c r="M35" t="s">
+      <c r="O35" t="s">
         <v>248</v>
       </c>
     </row>
-    <row r="36" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:15">
       <c r="A36" t="s">
         <v>47</v>
       </c>
@@ -2807,29 +3034,35 @@
       <c r="F36" t="s">
         <v>220</v>
       </c>
-      <c r="G36">
+      <c r="G36" s="3">
+        <v>8</v>
+      </c>
+      <c r="H36" s="3">
+        <v>8</v>
+      </c>
+      <c r="I36">
         <v>4.58</v>
       </c>
-      <c r="H36">
+      <c r="J36">
         <v>29</v>
       </c>
-      <c r="I36" t="s">
+      <c r="K36" t="s">
         <v>231</v>
       </c>
-      <c r="J36" s="2" t="s">
+      <c r="L36" s="2" t="s">
         <v>322</v>
       </c>
-      <c r="K36">
+      <c r="M36">
         <v>80</v>
       </c>
-      <c r="L36" t="s">
+      <c r="N36" t="s">
         <v>235</v>
       </c>
-      <c r="M36" t="s">
+      <c r="O36" t="s">
         <v>253</v>
       </c>
     </row>
-    <row r="37" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:15">
       <c r="A37" t="s">
         <v>48</v>
       </c>
@@ -2848,29 +3081,35 @@
       <c r="F37" t="s">
         <v>223</v>
       </c>
-      <c r="G37">
+      <c r="G37" s="3">
+        <v>6</v>
+      </c>
+      <c r="H37" s="3">
+        <v>3</v>
+      </c>
+      <c r="I37">
         <v>1.23</v>
       </c>
-      <c r="H37">
+      <c r="J37">
         <v>403</v>
       </c>
-      <c r="I37" t="s">
+      <c r="K37" t="s">
         <v>231</v>
       </c>
-      <c r="J37" s="2" t="s">
+      <c r="L37" s="2" t="s">
         <v>323</v>
       </c>
-      <c r="K37">
+      <c r="M37">
         <v>60</v>
       </c>
-      <c r="L37" t="s">
+      <c r="N37" t="s">
         <v>235</v>
       </c>
-      <c r="M37" t="s">
+      <c r="O37" t="s">
         <v>254</v>
       </c>
     </row>
-    <row r="38" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:15">
       <c r="A38" t="s">
         <v>49</v>
       </c>
@@ -2889,29 +3128,35 @@
       <c r="F38" t="s">
         <v>223</v>
       </c>
-      <c r="G38">
+      <c r="G38" s="3">
+        <v>12</v>
+      </c>
+      <c r="H38" s="3">
+        <v>6</v>
+      </c>
+      <c r="I38">
         <v>2.85</v>
       </c>
-      <c r="H38">
+      <c r="J38">
         <v>304</v>
       </c>
-      <c r="I38" t="s">
+      <c r="K38" t="s">
         <v>230</v>
       </c>
-      <c r="J38" s="2" t="s">
+      <c r="L38" s="2" t="s">
         <v>324</v>
       </c>
-      <c r="K38">
+      <c r="M38">
         <v>80</v>
       </c>
-      <c r="L38" t="s">
+      <c r="N38" t="s">
         <v>234</v>
       </c>
-      <c r="M38" t="s">
+      <c r="O38" t="s">
         <v>244</v>
       </c>
     </row>
-    <row r="39" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:15">
       <c r="A39" t="s">
         <v>50</v>
       </c>
@@ -2930,26 +3175,32 @@
       <c r="F39" t="s">
         <v>222</v>
       </c>
-      <c r="G39">
+      <c r="G39" s="3">
+        <v>12</v>
+      </c>
+      <c r="H39" s="3">
+        <v>3</v>
+      </c>
+      <c r="I39">
         <v>5.45</v>
       </c>
-      <c r="H39">
+      <c r="J39">
         <v>333</v>
       </c>
-      <c r="I39" t="s">
+      <c r="K39" t="s">
         <v>226</v>
       </c>
-      <c r="J39" s="2" t="s">
+      <c r="L39" s="2" t="s">
         <v>325</v>
       </c>
-      <c r="K39">
+      <c r="M39">
         <v>80</v>
       </c>
-      <c r="L39" t="s">
+      <c r="N39" t="s">
         <v>235</v>
       </c>
     </row>
-    <row r="40" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:15">
       <c r="A40" t="s">
         <v>51</v>
       </c>
@@ -2968,26 +3219,32 @@
       <c r="F40" t="s">
         <v>220</v>
       </c>
-      <c r="G40">
+      <c r="G40" s="3">
+        <v>12</v>
+      </c>
+      <c r="H40" s="3">
+        <v>12</v>
+      </c>
+      <c r="I40">
         <v>9.6999999999999993</v>
       </c>
-      <c r="H40">
+      <c r="J40">
         <v>183</v>
       </c>
-      <c r="I40" t="s">
+      <c r="K40" t="s">
         <v>231</v>
       </c>
-      <c r="J40" s="2" t="s">
+      <c r="L40" s="2" t="s">
         <v>326</v>
       </c>
-      <c r="K40">
+      <c r="M40">
         <v>50</v>
       </c>
-      <c r="L40" t="s">
+      <c r="N40" t="s">
         <v>236</v>
       </c>
     </row>
-    <row r="41" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:15">
       <c r="A41" t="s">
         <v>52</v>
       </c>
@@ -3006,29 +3263,35 @@
       <c r="F41" t="s">
         <v>222</v>
       </c>
-      <c r="G41">
+      <c r="G41" s="3">
+        <v>12</v>
+      </c>
+      <c r="H41" s="3">
+        <v>3</v>
+      </c>
+      <c r="I41">
         <v>7.98</v>
       </c>
-      <c r="H41">
+      <c r="J41">
         <v>171</v>
       </c>
-      <c r="I41" t="s">
+      <c r="K41" t="s">
         <v>231</v>
       </c>
-      <c r="J41" s="2" t="s">
+      <c r="L41" s="2" t="s">
         <v>327</v>
       </c>
-      <c r="K41">
+      <c r="M41">
         <v>80</v>
       </c>
-      <c r="L41" t="s">
+      <c r="N41" t="s">
         <v>236</v>
       </c>
-      <c r="M41" t="s">
+      <c r="O41" t="s">
         <v>255</v>
       </c>
     </row>
-    <row r="42" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:15">
       <c r="A42" t="s">
         <v>53</v>
       </c>
@@ -3047,24 +3310,30 @@
       <c r="F42" t="s">
         <v>224</v>
       </c>
-      <c r="G42">
+      <c r="G42" s="3">
+        <v>12</v>
+      </c>
+      <c r="H42" s="3">
+        <v>1</v>
+      </c>
+      <c r="I42">
         <v>1.89</v>
       </c>
-      <c r="H42">
+      <c r="J42">
         <v>119</v>
       </c>
-      <c r="I42" t="s">
+      <c r="K42" t="s">
         <v>229</v>
       </c>
-      <c r="J42" s="2"/>
-      <c r="K42">
+      <c r="L42" s="2"/>
+      <c r="M42">
         <v>70</v>
       </c>
-      <c r="L42" t="s">
+      <c r="N42" t="s">
         <v>236</v>
       </c>
     </row>
-    <row r="43" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:15">
       <c r="A43" t="s">
         <v>54</v>
       </c>
@@ -3083,27 +3352,33 @@
       <c r="F43" t="s">
         <v>223</v>
       </c>
-      <c r="G43">
+      <c r="G43" s="3">
+        <v>12</v>
+      </c>
+      <c r="H43" s="3">
+        <v>6</v>
+      </c>
+      <c r="I43">
         <v>6.68</v>
       </c>
-      <c r="H43">
+      <c r="J43">
         <v>392</v>
       </c>
-      <c r="I43" t="s">
+      <c r="K43" t="s">
         <v>231</v>
       </c>
-      <c r="J43" s="2"/>
-      <c r="K43">
+      <c r="L43" s="2"/>
+      <c r="M43">
         <v>80</v>
       </c>
-      <c r="L43" t="s">
+      <c r="N43" t="s">
         <v>234</v>
       </c>
-      <c r="M43" t="s">
+      <c r="O43" t="s">
         <v>256</v>
       </c>
     </row>
-    <row r="44" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:15">
       <c r="A44" t="s">
         <v>55</v>
       </c>
@@ -3122,27 +3397,33 @@
       <c r="F44" t="s">
         <v>223</v>
       </c>
-      <c r="G44">
+      <c r="G44" s="3">
+        <v>12</v>
+      </c>
+      <c r="H44" s="3">
+        <v>6</v>
+      </c>
+      <c r="I44">
         <v>1.51</v>
       </c>
-      <c r="H44">
+      <c r="J44">
         <v>242</v>
       </c>
-      <c r="I44" t="s">
+      <c r="K44" t="s">
         <v>232</v>
       </c>
-      <c r="J44" s="2"/>
-      <c r="K44">
+      <c r="L44" s="2"/>
+      <c r="M44">
         <v>50</v>
       </c>
-      <c r="L44" t="s">
+      <c r="N44" t="s">
         <v>236</v>
       </c>
-      <c r="M44" t="s">
+      <c r="O44" t="s">
         <v>257</v>
       </c>
     </row>
-    <row r="45" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:15">
       <c r="A45" t="s">
         <v>56</v>
       </c>
@@ -3161,27 +3442,33 @@
       <c r="F45" t="s">
         <v>220</v>
       </c>
-      <c r="G45">
+      <c r="G45" s="3">
+        <v>12</v>
+      </c>
+      <c r="H45" s="3">
+        <v>12</v>
+      </c>
+      <c r="I45">
         <v>2.99</v>
       </c>
-      <c r="H45">
+      <c r="J45">
         <v>412</v>
       </c>
-      <c r="I45" t="s">
+      <c r="K45" t="s">
         <v>230</v>
       </c>
-      <c r="J45" s="2"/>
-      <c r="K45">
+      <c r="L45" s="2"/>
+      <c r="M45">
         <v>50</v>
       </c>
-      <c r="L45" t="s">
+      <c r="N45" t="s">
         <v>234</v>
       </c>
-      <c r="M45" t="s">
+      <c r="O45" t="s">
         <v>258</v>
       </c>
     </row>
-    <row r="46" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:15">
       <c r="A46" t="s">
         <v>57</v>
       </c>
@@ -3200,27 +3487,33 @@
       <c r="F46" t="s">
         <v>222</v>
       </c>
-      <c r="G46">
+      <c r="G46" s="3">
+        <v>4</v>
+      </c>
+      <c r="H46" s="3">
+        <v>1</v>
+      </c>
+      <c r="I46">
         <v>9.52</v>
       </c>
-      <c r="H46">
+      <c r="J46">
         <v>236</v>
       </c>
-      <c r="I46" t="s">
+      <c r="K46" t="s">
         <v>229</v>
       </c>
-      <c r="J46" s="2"/>
-      <c r="K46">
+      <c r="L46" s="2"/>
+      <c r="M46">
         <v>80</v>
       </c>
-      <c r="L46" t="s">
+      <c r="N46" t="s">
         <v>235</v>
       </c>
-      <c r="M46" t="s">
+      <c r="O46" t="s">
         <v>259</v>
       </c>
     </row>
-    <row r="47" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:15">
       <c r="A47" t="s">
         <v>58</v>
       </c>
@@ -3239,27 +3532,33 @@
       <c r="F47" t="s">
         <v>224</v>
       </c>
-      <c r="G47">
+      <c r="G47" s="3">
+        <v>20</v>
+      </c>
+      <c r="H47" s="3">
+        <v>5</v>
+      </c>
+      <c r="I47">
         <v>3.27</v>
       </c>
-      <c r="H47">
+      <c r="J47">
         <v>261</v>
       </c>
-      <c r="I47" t="s">
+      <c r="K47" t="s">
         <v>233</v>
       </c>
-      <c r="J47" s="2"/>
-      <c r="K47">
+      <c r="L47" s="2"/>
+      <c r="M47">
         <v>70</v>
       </c>
-      <c r="L47" t="s">
+      <c r="N47" t="s">
         <v>235</v>
       </c>
-      <c r="M47" t="s">
+      <c r="O47" t="s">
         <v>260</v>
       </c>
     </row>
-    <row r="48" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:15">
       <c r="A48" t="s">
         <v>59</v>
       </c>
@@ -3278,24 +3577,30 @@
       <c r="F48" t="s">
         <v>221</v>
       </c>
-      <c r="G48">
+      <c r="G48" s="3">
+        <v>8</v>
+      </c>
+      <c r="H48" s="3">
+        <v>16</v>
+      </c>
+      <c r="I48">
         <v>3.56</v>
       </c>
-      <c r="H48">
+      <c r="J48">
         <v>331</v>
       </c>
-      <c r="I48" t="s">
+      <c r="K48" t="s">
         <v>228</v>
       </c>
-      <c r="J48" s="2"/>
-      <c r="K48">
+      <c r="L48" s="2"/>
+      <c r="M48">
         <v>40</v>
       </c>
-      <c r="L48" t="s">
+      <c r="N48" t="s">
         <v>235</v>
       </c>
     </row>
-    <row r="49" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:15">
       <c r="A49" t="s">
         <v>60</v>
       </c>
@@ -3314,27 +3619,33 @@
       <c r="F49" t="s">
         <v>220</v>
       </c>
-      <c r="G49">
+      <c r="G49" s="3">
+        <v>5</v>
+      </c>
+      <c r="H49" s="3">
+        <v>5</v>
+      </c>
+      <c r="I49">
         <v>9.93</v>
       </c>
-      <c r="H49">
+      <c r="J49">
         <v>248</v>
       </c>
-      <c r="I49" t="s">
+      <c r="K49" t="s">
         <v>232</v>
       </c>
-      <c r="J49" s="2"/>
-      <c r="K49">
+      <c r="L49" s="2"/>
+      <c r="M49">
         <v>70</v>
       </c>
-      <c r="L49" t="s">
+      <c r="N49" t="s">
         <v>234</v>
       </c>
-      <c r="M49" t="s">
+      <c r="O49" t="s">
         <v>261</v>
       </c>
     </row>
-    <row r="50" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:15">
       <c r="A50" t="s">
         <v>61</v>
       </c>
@@ -3353,27 +3664,33 @@
       <c r="F50" t="s">
         <v>224</v>
       </c>
-      <c r="G50">
+      <c r="G50" s="3">
+        <v>12</v>
+      </c>
+      <c r="H50" s="3">
+        <v>1</v>
+      </c>
+      <c r="I50">
         <v>9.1</v>
       </c>
-      <c r="H50">
+      <c r="J50">
         <v>460</v>
       </c>
-      <c r="I50" t="s">
+      <c r="K50" t="s">
         <v>232</v>
       </c>
-      <c r="J50" s="2"/>
-      <c r="K50">
+      <c r="L50" s="2"/>
+      <c r="M50">
         <v>60</v>
       </c>
-      <c r="L50" t="s">
+      <c r="N50" t="s">
         <v>235</v>
       </c>
-      <c r="M50" t="s">
+      <c r="O50" t="s">
         <v>262</v>
       </c>
     </row>
-    <row r="51" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="51" spans="1:15">
       <c r="A51" t="s">
         <v>62</v>
       </c>
@@ -3392,27 +3709,33 @@
       <c r="F51" t="s">
         <v>221</v>
       </c>
-      <c r="G51">
+      <c r="G51" s="3">
+        <v>12</v>
+      </c>
+      <c r="H51" s="3">
+        <v>24</v>
+      </c>
+      <c r="I51">
         <v>4.2300000000000004</v>
       </c>
-      <c r="H51">
+      <c r="J51">
         <v>247</v>
       </c>
-      <c r="I51" t="s">
+      <c r="K51" t="s">
         <v>226</v>
       </c>
-      <c r="J51" s="2"/>
-      <c r="K51">
+      <c r="L51" s="2"/>
+      <c r="M51">
         <v>60</v>
       </c>
-      <c r="L51" t="s">
+      <c r="N51" t="s">
         <v>235</v>
       </c>
-      <c r="M51" t="s">
+      <c r="O51" t="s">
         <v>249</v>
       </c>
     </row>
-    <row r="52" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="52" spans="1:15">
       <c r="A52" t="s">
         <v>63</v>
       </c>
@@ -3431,27 +3754,33 @@
       <c r="F52" t="s">
         <v>224</v>
       </c>
-      <c r="G52">
+      <c r="G52" s="3">
+        <v>12</v>
+      </c>
+      <c r="H52" s="3">
+        <v>1</v>
+      </c>
+      <c r="I52">
         <v>7.52</v>
       </c>
-      <c r="H52">
+      <c r="J52">
         <v>322</v>
       </c>
-      <c r="I52" t="s">
+      <c r="K52" t="s">
         <v>229</v>
       </c>
-      <c r="J52" s="2"/>
-      <c r="K52">
+      <c r="L52" s="2"/>
+      <c r="M52">
         <v>40</v>
       </c>
-      <c r="L52" t="s">
+      <c r="N52" t="s">
         <v>235</v>
       </c>
-      <c r="M52" t="s">
+      <c r="O52" t="s">
         <v>247</v>
       </c>
     </row>
-    <row r="53" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="53" spans="1:15">
       <c r="A53" t="s">
         <v>64</v>
       </c>
@@ -3470,27 +3799,33 @@
       <c r="F53" t="s">
         <v>222</v>
       </c>
-      <c r="G53">
+      <c r="G53" s="3">
+        <v>8</v>
+      </c>
+      <c r="H53" s="3">
+        <v>2</v>
+      </c>
+      <c r="I53">
         <v>4.38</v>
       </c>
-      <c r="H53">
+      <c r="J53">
         <v>301</v>
       </c>
-      <c r="I53" t="s">
+      <c r="K53" t="s">
         <v>226</v>
       </c>
-      <c r="J53" s="2"/>
-      <c r="K53">
+      <c r="L53" s="2"/>
+      <c r="M53">
         <v>40</v>
       </c>
-      <c r="L53" t="s">
+      <c r="N53" t="s">
         <v>235</v>
       </c>
-      <c r="M53" t="s">
+      <c r="O53" t="s">
         <v>255</v>
       </c>
     </row>
-    <row r="54" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="54" spans="1:15">
       <c r="A54" t="s">
         <v>65</v>
       </c>
@@ -3509,27 +3844,33 @@
       <c r="F54" t="s">
         <v>221</v>
       </c>
-      <c r="G54">
+      <c r="G54" s="3">
+        <v>5</v>
+      </c>
+      <c r="H54" s="3">
+        <v>10</v>
+      </c>
+      <c r="I54">
         <v>8.31</v>
       </c>
-      <c r="H54">
+      <c r="J54">
         <v>370</v>
       </c>
-      <c r="I54" t="s">
+      <c r="K54" t="s">
         <v>232</v>
       </c>
-      <c r="J54" s="2"/>
-      <c r="K54">
+      <c r="L54" s="2"/>
+      <c r="M54">
         <v>80</v>
       </c>
-      <c r="L54" t="s">
+      <c r="N54" t="s">
         <v>235</v>
       </c>
-      <c r="M54" t="s">
+      <c r="O54" t="s">
         <v>263</v>
       </c>
     </row>
-    <row r="55" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="55" spans="1:15">
       <c r="A55" t="s">
         <v>66</v>
       </c>
@@ -3548,27 +3889,33 @@
       <c r="F55" t="s">
         <v>220</v>
       </c>
-      <c r="G55">
+      <c r="G55" s="3">
+        <v>25</v>
+      </c>
+      <c r="H55" s="3">
+        <v>25</v>
+      </c>
+      <c r="I55">
         <v>6.45</v>
       </c>
-      <c r="H55">
+      <c r="J55">
         <v>465</v>
       </c>
-      <c r="I55" t="s">
+      <c r="K55" t="s">
         <v>230</v>
       </c>
-      <c r="J55" s="2"/>
-      <c r="K55">
+      <c r="L55" s="2"/>
+      <c r="M55">
         <v>40</v>
       </c>
-      <c r="L55" t="s">
+      <c r="N55" t="s">
         <v>236</v>
       </c>
-      <c r="M55" t="s">
+      <c r="O55" t="s">
         <v>264</v>
       </c>
     </row>
-    <row r="56" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="56" spans="1:15">
       <c r="A56" t="s">
         <v>67</v>
       </c>
@@ -3587,24 +3934,30 @@
       <c r="F56" t="s">
         <v>221</v>
       </c>
-      <c r="G56">
+      <c r="G56" s="3">
+        <v>4</v>
+      </c>
+      <c r="H56" s="3">
+        <v>8</v>
+      </c>
+      <c r="I56">
         <v>6.04</v>
       </c>
-      <c r="H56">
+      <c r="J56">
         <v>241</v>
       </c>
-      <c r="I56" t="s">
+      <c r="K56" t="s">
         <v>230</v>
       </c>
-      <c r="J56" s="2"/>
-      <c r="K56">
+      <c r="L56" s="2"/>
+      <c r="M56">
         <v>60</v>
       </c>
-      <c r="L56" t="s">
+      <c r="N56" t="s">
         <v>236</v>
       </c>
     </row>
-    <row r="57" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="57" spans="1:15">
       <c r="A57" t="s">
         <v>68</v>
       </c>
@@ -3623,27 +3976,33 @@
       <c r="F57" t="s">
         <v>223</v>
       </c>
-      <c r="G57">
+      <c r="G57" s="3">
+        <v>10</v>
+      </c>
+      <c r="H57" s="3">
+        <v>5</v>
+      </c>
+      <c r="I57">
         <v>8.24</v>
       </c>
-      <c r="H57">
+      <c r="J57">
         <v>122</v>
       </c>
-      <c r="I57" t="s">
+      <c r="K57" t="s">
         <v>232</v>
       </c>
-      <c r="J57" s="2"/>
-      <c r="K57">
+      <c r="L57" s="2"/>
+      <c r="M57">
         <v>70</v>
       </c>
-      <c r="L57" t="s">
+      <c r="N57" t="s">
         <v>235</v>
       </c>
-      <c r="M57" t="s">
+      <c r="O57" t="s">
         <v>244</v>
       </c>
     </row>
-    <row r="58" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="58" spans="1:15">
       <c r="A58" t="s">
         <v>69</v>
       </c>
@@ -3662,24 +4021,30 @@
       <c r="F58" t="s">
         <v>221</v>
       </c>
-      <c r="G58">
+      <c r="G58" s="3">
+        <v>12</v>
+      </c>
+      <c r="H58" s="3">
+        <v>24</v>
+      </c>
+      <c r="I58">
         <v>3.67</v>
       </c>
-      <c r="H58">
+      <c r="J58">
         <v>125</v>
       </c>
-      <c r="I58" t="s">
+      <c r="K58" t="s">
         <v>229</v>
       </c>
-      <c r="J58" s="2"/>
-      <c r="K58">
+      <c r="L58" s="2"/>
+      <c r="M58">
         <v>60</v>
       </c>
-      <c r="L58" t="s">
+      <c r="N58" t="s">
         <v>236</v>
       </c>
     </row>
-    <row r="59" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="59" spans="1:15">
       <c r="A59" t="s">
         <v>70</v>
       </c>
@@ -3698,27 +4063,33 @@
       <c r="F59" t="s">
         <v>222</v>
       </c>
-      <c r="G59">
+      <c r="G59" s="3">
+        <v>12</v>
+      </c>
+      <c r="H59" s="3">
+        <v>3</v>
+      </c>
+      <c r="I59">
         <v>3.31</v>
       </c>
-      <c r="H59">
+      <c r="J59">
         <v>491</v>
       </c>
-      <c r="I59" t="s">
+      <c r="K59" t="s">
         <v>230</v>
       </c>
-      <c r="J59" s="2"/>
-      <c r="K59">
+      <c r="L59" s="2"/>
+      <c r="M59">
         <v>80</v>
       </c>
-      <c r="L59" t="s">
+      <c r="N59" t="s">
         <v>235</v>
       </c>
-      <c r="M59" t="s">
+      <c r="O59" t="s">
         <v>244</v>
       </c>
     </row>
-    <row r="60" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="60" spans="1:15">
       <c r="A60" t="s">
         <v>71</v>
       </c>
@@ -3737,27 +4108,33 @@
       <c r="F60" t="s">
         <v>224</v>
       </c>
-      <c r="G60">
+      <c r="G60" s="3">
+        <v>7</v>
+      </c>
+      <c r="H60" s="3">
+        <v>1</v>
+      </c>
+      <c r="I60">
         <v>2.2400000000000002</v>
       </c>
-      <c r="H60">
+      <c r="J60">
         <v>27</v>
       </c>
-      <c r="I60" t="s">
+      <c r="K60" t="s">
         <v>228</v>
       </c>
-      <c r="J60" s="2"/>
-      <c r="K60">
+      <c r="L60" s="2"/>
+      <c r="M60">
         <v>70</v>
       </c>
-      <c r="L60" t="s">
+      <c r="N60" t="s">
         <v>236</v>
       </c>
-      <c r="M60" t="s">
+      <c r="O60" t="s">
         <v>265</v>
       </c>
     </row>
-    <row r="61" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="61" spans="1:15">
       <c r="A61" t="s">
         <v>72</v>
       </c>
@@ -3776,27 +4153,33 @@
       <c r="F61" t="s">
         <v>222</v>
       </c>
-      <c r="G61">
+      <c r="G61" s="3">
+        <v>8</v>
+      </c>
+      <c r="H61" s="3">
+        <v>2</v>
+      </c>
+      <c r="I61">
         <v>5.8</v>
       </c>
-      <c r="H61">
+      <c r="J61">
         <v>31</v>
       </c>
-      <c r="I61" t="s">
+      <c r="K61" t="s">
         <v>229</v>
       </c>
-      <c r="J61" s="2"/>
-      <c r="K61">
+      <c r="L61" s="2"/>
+      <c r="M61">
         <v>50</v>
       </c>
-      <c r="L61" t="s">
+      <c r="N61" t="s">
         <v>235</v>
       </c>
-      <c r="M61" t="s">
+      <c r="O61" t="s">
         <v>243</v>
       </c>
     </row>
-    <row r="62" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="62" spans="1:15">
       <c r="A62" t="s">
         <v>73</v>
       </c>
@@ -3815,27 +4198,33 @@
       <c r="F62" t="s">
         <v>224</v>
       </c>
-      <c r="G62">
+      <c r="G62" s="3">
+        <v>5</v>
+      </c>
+      <c r="H62" s="3">
+        <v>1</v>
+      </c>
+      <c r="I62">
         <v>9.2799999999999994</v>
       </c>
-      <c r="H62">
+      <c r="J62">
         <v>80</v>
       </c>
-      <c r="I62" t="s">
+      <c r="K62" t="s">
         <v>225</v>
       </c>
-      <c r="J62" s="2"/>
-      <c r="K62">
+      <c r="L62" s="2"/>
+      <c r="M62">
         <v>40</v>
       </c>
-      <c r="L62" t="s">
+      <c r="N62" t="s">
         <v>235</v>
       </c>
-      <c r="M62" t="s">
+      <c r="O62" t="s">
         <v>266</v>
       </c>
     </row>
-    <row r="63" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="63" spans="1:15">
       <c r="A63" t="s">
         <v>74</v>
       </c>
@@ -3854,27 +4243,33 @@
       <c r="F63" t="s">
         <v>223</v>
       </c>
-      <c r="G63">
+      <c r="G63" s="3">
+        <v>24</v>
+      </c>
+      <c r="H63" s="3">
+        <v>12</v>
+      </c>
+      <c r="I63">
         <v>7.72</v>
       </c>
-      <c r="H63">
+      <c r="J63">
         <v>33</v>
       </c>
-      <c r="I63" t="s">
+      <c r="K63" t="s">
         <v>233</v>
       </c>
-      <c r="J63" s="2"/>
-      <c r="K63">
+      <c r="L63" s="2"/>
+      <c r="M63">
         <v>60</v>
       </c>
-      <c r="L63" t="s">
+      <c r="N63" t="s">
         <v>234</v>
       </c>
-      <c r="M63" t="s">
+      <c r="O63" t="s">
         <v>267</v>
       </c>
     </row>
-    <row r="64" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="64" spans="1:15">
       <c r="A64" t="s">
         <v>75</v>
       </c>
@@ -3893,27 +4288,33 @@
       <c r="F64" t="s">
         <v>220</v>
       </c>
-      <c r="G64">
+      <c r="G64" s="3">
+        <v>25</v>
+      </c>
+      <c r="H64" s="3">
+        <v>25</v>
+      </c>
+      <c r="I64">
         <v>2.63</v>
       </c>
-      <c r="H64">
+      <c r="J64">
         <v>58</v>
       </c>
-      <c r="I64" t="s">
+      <c r="K64" t="s">
         <v>228</v>
       </c>
-      <c r="J64" s="2"/>
-      <c r="K64">
+      <c r="L64" s="2"/>
+      <c r="M64">
         <v>40</v>
       </c>
-      <c r="L64" t="s">
+      <c r="N64" t="s">
         <v>236</v>
       </c>
-      <c r="M64" t="s">
+      <c r="O64" t="s">
         <v>268</v>
       </c>
     </row>
-    <row r="65" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="65" spans="1:15">
       <c r="A65" t="s">
         <v>76</v>
       </c>
@@ -3932,27 +4333,33 @@
       <c r="F65" t="s">
         <v>223</v>
       </c>
-      <c r="G65">
+      <c r="G65" s="3">
+        <v>8</v>
+      </c>
+      <c r="H65" s="3">
+        <v>4</v>
+      </c>
+      <c r="I65">
         <v>1.77</v>
       </c>
-      <c r="H65">
+      <c r="J65">
         <v>130</v>
       </c>
-      <c r="I65" t="s">
+      <c r="K65" t="s">
         <v>228</v>
       </c>
-      <c r="J65" s="2"/>
-      <c r="K65">
+      <c r="L65" s="2"/>
+      <c r="M65">
         <v>50</v>
       </c>
-      <c r="L65" t="s">
+      <c r="N65" t="s">
         <v>234</v>
       </c>
-      <c r="M65" t="s">
+      <c r="O65" t="s">
         <v>269</v>
       </c>
     </row>
-    <row r="66" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="66" spans="1:15">
       <c r="A66" t="s">
         <v>77</v>
       </c>
@@ -3971,24 +4378,30 @@
       <c r="F66" t="s">
         <v>224</v>
       </c>
-      <c r="G66">
+      <c r="G66" s="3">
+        <v>5</v>
+      </c>
+      <c r="H66" s="3">
+        <v>1</v>
+      </c>
+      <c r="I66">
         <v>9.8699999999999992</v>
       </c>
-      <c r="H66">
+      <c r="J66">
         <v>248</v>
       </c>
-      <c r="I66" t="s">
+      <c r="K66" t="s">
         <v>226</v>
       </c>
-      <c r="J66" s="2"/>
-      <c r="K66">
+      <c r="L66" s="2"/>
+      <c r="M66">
         <v>40</v>
       </c>
-      <c r="L66" t="s">
+      <c r="N66" t="s">
         <v>236</v>
       </c>
     </row>
-    <row r="67" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="67" spans="1:15">
       <c r="A67" t="s">
         <v>78</v>
       </c>
@@ -4007,27 +4420,33 @@
       <c r="F67" t="s">
         <v>224</v>
       </c>
-      <c r="G67">
+      <c r="G67" s="3">
+        <v>12</v>
+      </c>
+      <c r="H67" s="3">
+        <v>1</v>
+      </c>
+      <c r="I67">
         <v>1.78</v>
       </c>
-      <c r="H67">
+      <c r="J67">
         <v>369</v>
       </c>
-      <c r="I67" t="s">
+      <c r="K67" t="s">
         <v>231</v>
       </c>
-      <c r="J67" s="2"/>
-      <c r="K67">
+      <c r="L67" s="2"/>
+      <c r="M67">
         <v>40</v>
       </c>
-      <c r="L67" t="s">
+      <c r="N67" t="s">
         <v>234</v>
       </c>
-      <c r="M67" t="s">
+      <c r="O67" t="s">
         <v>270</v>
       </c>
     </row>
-    <row r="68" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="68" spans="1:15">
       <c r="A68" t="s">
         <v>79</v>
       </c>
@@ -4046,27 +4465,33 @@
       <c r="F68" t="s">
         <v>222</v>
       </c>
-      <c r="G68">
+      <c r="G68" s="3">
+        <v>12</v>
+      </c>
+      <c r="H68" s="3">
+        <v>3</v>
+      </c>
+      <c r="I68">
         <v>5.41</v>
       </c>
-      <c r="H68">
+      <c r="J68">
         <v>454</v>
       </c>
-      <c r="I68" t="s">
+      <c r="K68" t="s">
         <v>231</v>
       </c>
-      <c r="J68" s="2"/>
-      <c r="K68">
+      <c r="L68" s="2"/>
+      <c r="M68">
         <v>40</v>
       </c>
-      <c r="L68" t="s">
+      <c r="N68" t="s">
         <v>235</v>
       </c>
-      <c r="M68" t="s">
+      <c r="O68" t="s">
         <v>271</v>
       </c>
     </row>
-    <row r="69" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="69" spans="1:15">
       <c r="A69" t="s">
         <v>80</v>
       </c>
@@ -4085,27 +4510,33 @@
       <c r="F69" t="s">
         <v>222</v>
       </c>
-      <c r="G69">
+      <c r="G69" s="3">
+        <v>12</v>
+      </c>
+      <c r="H69" s="3">
+        <v>3</v>
+      </c>
+      <c r="I69">
         <v>5.76</v>
       </c>
-      <c r="H69">
+      <c r="J69">
         <v>20</v>
       </c>
-      <c r="I69" t="s">
+      <c r="K69" t="s">
         <v>230</v>
       </c>
-      <c r="J69" s="2"/>
-      <c r="K69">
+      <c r="L69" s="2"/>
+      <c r="M69">
         <v>50</v>
       </c>
-      <c r="L69" t="s">
+      <c r="N69" t="s">
         <v>235</v>
       </c>
-      <c r="M69" t="s">
+      <c r="O69" t="s">
         <v>272</v>
       </c>
     </row>
-    <row r="70" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="70" spans="1:15">
       <c r="A70" t="s">
         <v>81</v>
       </c>
@@ -4124,24 +4555,30 @@
       <c r="F70" t="s">
         <v>223</v>
       </c>
-      <c r="G70">
+      <c r="G70" s="3">
+        <v>12</v>
+      </c>
+      <c r="H70" s="3">
+        <v>6</v>
+      </c>
+      <c r="I70">
         <v>5.93</v>
       </c>
-      <c r="H70">
+      <c r="J70">
         <v>157</v>
       </c>
-      <c r="I70" t="s">
+      <c r="K70" t="s">
         <v>226</v>
       </c>
-      <c r="J70" s="2"/>
-      <c r="K70">
+      <c r="L70" s="2"/>
+      <c r="M70">
         <v>70</v>
       </c>
-      <c r="L70" t="s">
+      <c r="N70" t="s">
         <v>235</v>
       </c>
     </row>
-    <row r="71" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="71" spans="1:15">
       <c r="A71" t="s">
         <v>82</v>
       </c>
@@ -4160,27 +4597,33 @@
       <c r="F71" t="s">
         <v>220</v>
       </c>
-      <c r="G71">
+      <c r="G71" s="3">
+        <v>12</v>
+      </c>
+      <c r="H71" s="3">
+        <v>12</v>
+      </c>
+      <c r="I71">
         <v>1.01</v>
       </c>
-      <c r="H71">
+      <c r="J71">
         <v>284</v>
       </c>
-      <c r="I71" t="s">
+      <c r="K71" t="s">
         <v>230</v>
       </c>
-      <c r="J71" s="2"/>
-      <c r="K71">
+      <c r="L71" s="2"/>
+      <c r="M71">
         <v>60</v>
       </c>
-      <c r="L71" t="s">
+      <c r="N71" t="s">
         <v>234</v>
       </c>
-      <c r="M71" t="s">
+      <c r="O71" t="s">
         <v>273</v>
       </c>
     </row>
-    <row r="72" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="72" spans="1:15">
       <c r="A72" t="s">
         <v>83</v>
       </c>
@@ -4199,27 +4642,33 @@
       <c r="F72" t="s">
         <v>222</v>
       </c>
-      <c r="G72">
+      <c r="G72" s="3">
+        <v>12</v>
+      </c>
+      <c r="H72" s="3">
+        <v>3</v>
+      </c>
+      <c r="I72">
         <v>2.84</v>
       </c>
-      <c r="H72">
+      <c r="J72">
         <v>54</v>
       </c>
-      <c r="I72" t="s">
+      <c r="K72" t="s">
         <v>225</v>
       </c>
-      <c r="J72" s="2"/>
-      <c r="K72">
+      <c r="L72" s="2"/>
+      <c r="M72">
         <v>40</v>
       </c>
-      <c r="L72" t="s">
+      <c r="N72" t="s">
         <v>235</v>
       </c>
-      <c r="M72" t="s">
+      <c r="O72" t="s">
         <v>274</v>
       </c>
     </row>
-    <row r="73" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="73" spans="1:15">
       <c r="A73" t="s">
         <v>84</v>
       </c>
@@ -4238,24 +4687,30 @@
       <c r="F73" t="s">
         <v>224</v>
       </c>
-      <c r="G73">
+      <c r="G73" s="3">
+        <v>30</v>
+      </c>
+      <c r="H73" s="3">
+        <v>1</v>
+      </c>
+      <c r="I73">
         <v>6.69</v>
       </c>
-      <c r="H73">
+      <c r="J73">
         <v>81</v>
       </c>
-      <c r="I73" t="s">
+      <c r="K73" t="s">
         <v>232</v>
       </c>
-      <c r="J73" s="2"/>
-      <c r="K73">
+      <c r="L73" s="2"/>
+      <c r="M73">
         <v>70</v>
       </c>
-      <c r="L73" t="s">
+      <c r="N73" t="s">
         <v>236</v>
       </c>
     </row>
-    <row r="74" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="74" spans="1:15">
       <c r="A74" t="s">
         <v>85</v>
       </c>
@@ -4274,24 +4729,30 @@
       <c r="F74" t="s">
         <v>224</v>
       </c>
-      <c r="G74">
+      <c r="G74" s="3">
+        <v>12</v>
+      </c>
+      <c r="H74" s="3">
+        <v>1</v>
+      </c>
+      <c r="I74">
         <v>6.61</v>
       </c>
-      <c r="H74">
+      <c r="J74">
         <v>372</v>
       </c>
-      <c r="I74" t="s">
+      <c r="K74" t="s">
         <v>225</v>
       </c>
-      <c r="J74" s="2"/>
-      <c r="K74">
+      <c r="L74" s="2"/>
+      <c r="M74">
         <v>40</v>
       </c>
-      <c r="L74" t="s">
+      <c r="N74" t="s">
         <v>236</v>
       </c>
     </row>
-    <row r="75" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="75" spans="1:15">
       <c r="A75" t="s">
         <v>86</v>
       </c>
@@ -4310,27 +4771,33 @@
       <c r="F75" t="s">
         <v>220</v>
       </c>
-      <c r="G75">
+      <c r="G75" s="3">
+        <v>8</v>
+      </c>
+      <c r="H75" s="3">
+        <v>8</v>
+      </c>
+      <c r="I75">
         <v>9.15</v>
       </c>
-      <c r="H75">
+      <c r="J75">
         <v>454</v>
       </c>
-      <c r="I75" t="s">
+      <c r="K75" t="s">
         <v>226</v>
       </c>
-      <c r="J75" s="2"/>
-      <c r="K75">
+      <c r="L75" s="2"/>
+      <c r="M75">
         <v>60</v>
       </c>
-      <c r="L75" t="s">
+      <c r="N75" t="s">
         <v>235</v>
       </c>
-      <c r="M75" t="s">
+      <c r="O75" t="s">
         <v>243</v>
       </c>
     </row>
-    <row r="76" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="76" spans="1:15">
       <c r="A76" t="s">
         <v>87</v>
       </c>
@@ -4349,27 +4816,33 @@
       <c r="F76" t="s">
         <v>222</v>
       </c>
-      <c r="G76">
+      <c r="G76" s="3">
+        <v>44</v>
+      </c>
+      <c r="H76" s="3">
+        <v>11</v>
+      </c>
+      <c r="I76">
         <v>3.8</v>
       </c>
-      <c r="H76">
+      <c r="J76">
         <v>430</v>
       </c>
-      <c r="I76" t="s">
+      <c r="K76" t="s">
         <v>231</v>
       </c>
-      <c r="J76" s="2"/>
-      <c r="K76">
+      <c r="L76" s="2"/>
+      <c r="M76">
         <v>40</v>
       </c>
-      <c r="L76" t="s">
+      <c r="N76" t="s">
         <v>235</v>
       </c>
-      <c r="M76" t="s">
+      <c r="O76" t="s">
         <v>275</v>
       </c>
     </row>
-    <row r="77" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="77" spans="1:15">
       <c r="A77" t="s">
         <v>88</v>
       </c>
@@ -4388,27 +4861,33 @@
       <c r="F77" t="s">
         <v>221</v>
       </c>
-      <c r="G77">
+      <c r="G77" s="3">
+        <v>4</v>
+      </c>
+      <c r="H77" s="3">
+        <v>8</v>
+      </c>
+      <c r="I77">
         <v>4.57</v>
       </c>
-      <c r="H77">
+      <c r="J77">
         <v>176</v>
       </c>
-      <c r="I77" t="s">
+      <c r="K77" t="s">
         <v>231</v>
       </c>
-      <c r="J77" s="2"/>
-      <c r="K77">
+      <c r="L77" s="2"/>
+      <c r="M77">
         <v>80</v>
       </c>
-      <c r="L77" t="s">
+      <c r="N77" t="s">
         <v>236</v>
       </c>
-      <c r="M77" t="s">
+      <c r="O77" t="s">
         <v>265</v>
       </c>
     </row>
-    <row r="78" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="78" spans="1:15">
       <c r="A78" t="s">
         <v>89</v>
       </c>
@@ -4427,27 +4906,33 @@
       <c r="F78" t="s">
         <v>224</v>
       </c>
-      <c r="G78">
+      <c r="G78" s="3">
+        <v>20</v>
+      </c>
+      <c r="H78" s="3">
+        <v>1</v>
+      </c>
+      <c r="I78">
         <v>9.6199999999999992</v>
       </c>
-      <c r="H78">
+      <c r="J78">
         <v>379</v>
       </c>
-      <c r="I78" t="s">
+      <c r="K78" t="s">
         <v>232</v>
       </c>
-      <c r="J78" s="2"/>
-      <c r="K78">
+      <c r="L78" s="2"/>
+      <c r="M78">
         <v>50</v>
       </c>
-      <c r="L78" t="s">
+      <c r="N78" t="s">
         <v>235</v>
       </c>
-      <c r="M78" t="s">
+      <c r="O78" t="s">
         <v>245</v>
       </c>
     </row>
-    <row r="79" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="79" spans="1:15">
       <c r="A79" t="s">
         <v>90</v>
       </c>
@@ -4466,27 +4951,33 @@
       <c r="F79" t="s">
         <v>221</v>
       </c>
-      <c r="G79">
+      <c r="G79" s="3">
+        <v>4</v>
+      </c>
+      <c r="H79" s="3">
+        <v>8</v>
+      </c>
+      <c r="I79">
         <v>8.1</v>
       </c>
-      <c r="H79">
+      <c r="J79">
         <v>312</v>
       </c>
-      <c r="I79" t="s">
+      <c r="K79" t="s">
         <v>231</v>
       </c>
-      <c r="J79" s="2"/>
-      <c r="K79">
+      <c r="L79" s="2"/>
+      <c r="M79">
         <v>50</v>
       </c>
-      <c r="L79" t="s">
+      <c r="N79" t="s">
         <v>236</v>
       </c>
-      <c r="M79" t="s">
+      <c r="O79" t="s">
         <v>275</v>
       </c>
     </row>
-    <row r="80" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="80" spans="1:15">
       <c r="A80" t="s">
         <v>91</v>
       </c>
@@ -4505,27 +4996,33 @@
       <c r="F80" t="s">
         <v>220</v>
       </c>
-      <c r="G80">
+      <c r="G80" s="3">
+        <v>12</v>
+      </c>
+      <c r="H80" s="3">
+        <v>12</v>
+      </c>
+      <c r="I80">
         <v>9.85</v>
       </c>
-      <c r="H80">
+      <c r="J80">
         <v>129</v>
       </c>
-      <c r="I80" t="s">
+      <c r="K80" t="s">
         <v>233</v>
       </c>
-      <c r="J80" s="2"/>
-      <c r="K80">
+      <c r="L80" s="2"/>
+      <c r="M80">
         <v>70</v>
       </c>
-      <c r="L80" t="s">
+      <c r="N80" t="s">
         <v>235</v>
       </c>
-      <c r="M80" t="s">
+      <c r="O80" t="s">
         <v>276</v>
       </c>
     </row>
-    <row r="81" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="81" spans="1:15">
       <c r="A81" t="s">
         <v>92</v>
       </c>
@@ -4544,27 +5041,33 @@
       <c r="F81" t="s">
         <v>221</v>
       </c>
-      <c r="G81">
+      <c r="G81" s="3">
+        <v>5</v>
+      </c>
+      <c r="H81" s="3">
+        <v>10</v>
+      </c>
+      <c r="I81">
         <v>8.08</v>
       </c>
-      <c r="H81">
+      <c r="J81">
         <v>173</v>
       </c>
-      <c r="I81" t="s">
+      <c r="K81" t="s">
         <v>228</v>
       </c>
-      <c r="J81" s="2"/>
-      <c r="K81">
+      <c r="L81" s="2"/>
+      <c r="M81">
         <v>40</v>
       </c>
-      <c r="L81" t="s">
+      <c r="N81" t="s">
         <v>234</v>
       </c>
-      <c r="M81" t="s">
+      <c r="O81" t="s">
         <v>277</v>
       </c>
     </row>
-    <row r="82" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="82" spans="1:15">
       <c r="A82" t="s">
         <v>93</v>
       </c>
@@ -4583,27 +5086,33 @@
       <c r="F82" t="s">
         <v>222</v>
       </c>
-      <c r="G82">
+      <c r="G82" s="3">
+        <v>20</v>
+      </c>
+      <c r="H82" s="3">
+        <v>5</v>
+      </c>
+      <c r="I82">
         <v>6.27</v>
       </c>
-      <c r="H82">
+      <c r="J82">
         <v>462</v>
       </c>
-      <c r="I82" t="s">
+      <c r="K82" t="s">
         <v>226</v>
       </c>
-      <c r="J82" s="2"/>
-      <c r="K82">
+      <c r="L82" s="2"/>
+      <c r="M82">
         <v>70</v>
       </c>
-      <c r="L82" t="s">
+      <c r="N82" t="s">
         <v>234</v>
       </c>
-      <c r="M82" t="s">
+      <c r="O82" t="s">
         <v>278</v>
       </c>
     </row>
-    <row r="83" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="83" spans="1:15">
       <c r="A83" t="s">
         <v>94</v>
       </c>
@@ -4622,24 +5131,30 @@
       <c r="F83" t="s">
         <v>221</v>
       </c>
-      <c r="G83">
+      <c r="G83" s="3">
+        <v>6</v>
+      </c>
+      <c r="H83" s="3">
+        <v>12</v>
+      </c>
+      <c r="I83">
         <v>2.9</v>
       </c>
-      <c r="H83">
+      <c r="J83">
         <v>68</v>
       </c>
-      <c r="I83" t="s">
+      <c r="K83" t="s">
         <v>229</v>
       </c>
-      <c r="J83" s="2"/>
-      <c r="K83">
+      <c r="L83" s="2"/>
+      <c r="M83">
         <v>40</v>
       </c>
-      <c r="L83" t="s">
+      <c r="N83" t="s">
         <v>236</v>
       </c>
     </row>
-    <row r="84" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="84" spans="1:15">
       <c r="A84" t="s">
         <v>95</v>
       </c>
@@ -4658,27 +5173,33 @@
       <c r="F84" t="s">
         <v>220</v>
       </c>
-      <c r="G84">
+      <c r="G84" s="3">
+        <v>7</v>
+      </c>
+      <c r="H84" s="3">
+        <v>7</v>
+      </c>
+      <c r="I84">
         <v>4.57</v>
       </c>
-      <c r="H84">
+      <c r="J84">
         <v>454</v>
       </c>
-      <c r="I84" t="s">
+      <c r="K84" t="s">
         <v>230</v>
       </c>
-      <c r="J84" s="2"/>
-      <c r="K84">
+      <c r="L84" s="2"/>
+      <c r="M84">
         <v>60</v>
       </c>
-      <c r="L84" t="s">
+      <c r="N84" t="s">
         <v>234</v>
       </c>
-      <c r="M84" t="s">
+      <c r="O84" t="s">
         <v>258</v>
       </c>
     </row>
-    <row r="85" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="85" spans="1:15">
       <c r="A85" t="s">
         <v>96</v>
       </c>
@@ -4697,27 +5218,33 @@
       <c r="F85" t="s">
         <v>224</v>
       </c>
-      <c r="G85">
+      <c r="G85" s="3">
+        <v>8</v>
+      </c>
+      <c r="H85" s="3">
+        <v>1</v>
+      </c>
+      <c r="I85">
         <v>5.07</v>
       </c>
-      <c r="H85">
+      <c r="J85">
         <v>213</v>
       </c>
-      <c r="I85" t="s">
+      <c r="K85" t="s">
         <v>230</v>
       </c>
-      <c r="J85" s="2"/>
-      <c r="K85">
+      <c r="L85" s="2"/>
+      <c r="M85">
         <v>70</v>
       </c>
-      <c r="L85" t="s">
+      <c r="N85" t="s">
         <v>236</v>
       </c>
-      <c r="M85" t="s">
+      <c r="O85" t="s">
         <v>244</v>
       </c>
     </row>
-    <row r="86" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="86" spans="1:15">
       <c r="A86" t="s">
         <v>97</v>
       </c>
@@ -4736,27 +5263,33 @@
       <c r="F86" t="s">
         <v>223</v>
       </c>
-      <c r="G86">
+      <c r="G86" s="3">
+        <v>4</v>
+      </c>
+      <c r="H86" s="3">
+        <v>2</v>
+      </c>
+      <c r="I86">
         <v>4.67</v>
       </c>
-      <c r="H86">
+      <c r="J86">
         <v>106</v>
       </c>
-      <c r="I86" t="s">
+      <c r="K86" t="s">
         <v>227</v>
       </c>
-      <c r="J86" s="2"/>
-      <c r="K86">
+      <c r="L86" s="2"/>
+      <c r="M86">
         <v>70</v>
       </c>
-      <c r="L86" t="s">
+      <c r="N86" t="s">
         <v>235</v>
       </c>
-      <c r="M86" t="s">
+      <c r="O86" t="s">
         <v>279</v>
       </c>
     </row>
-    <row r="87" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="87" spans="1:15">
       <c r="A87" t="s">
         <v>98</v>
       </c>
@@ -4775,27 +5308,33 @@
       <c r="F87" t="s">
         <v>224</v>
       </c>
-      <c r="G87">
+      <c r="G87" s="3">
+        <v>25</v>
+      </c>
+      <c r="H87" s="3">
+        <v>1</v>
+      </c>
+      <c r="I87">
         <v>6.86</v>
       </c>
-      <c r="H87">
+      <c r="J87">
         <v>283</v>
       </c>
-      <c r="I87" t="s">
+      <c r="K87" t="s">
         <v>232</v>
       </c>
-      <c r="J87" s="2"/>
-      <c r="K87">
+      <c r="L87" s="2"/>
+      <c r="M87">
         <v>50</v>
       </c>
-      <c r="L87" t="s">
+      <c r="N87" t="s">
         <v>234</v>
       </c>
-      <c r="M87" t="s">
+      <c r="O87" t="s">
         <v>280</v>
       </c>
     </row>
-    <row r="88" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="88" spans="1:15">
       <c r="A88" t="s">
         <v>99</v>
       </c>
@@ -4814,27 +5353,33 @@
       <c r="F88" t="s">
         <v>223</v>
       </c>
-      <c r="G88">
+      <c r="G88" s="3">
+        <v>24</v>
+      </c>
+      <c r="H88" s="3">
+        <v>12</v>
+      </c>
+      <c r="I88">
         <v>1.76</v>
       </c>
-      <c r="H88">
+      <c r="J88">
         <v>170</v>
       </c>
-      <c r="I88" t="s">
+      <c r="K88" t="s">
         <v>226</v>
       </c>
-      <c r="J88" s="2"/>
-      <c r="K88">
+      <c r="L88" s="2"/>
+      <c r="M88">
         <v>80</v>
       </c>
-      <c r="L88" t="s">
+      <c r="N88" t="s">
         <v>234</v>
       </c>
-      <c r="M88" t="s">
+      <c r="O88" t="s">
         <v>239</v>
       </c>
     </row>
-    <row r="89" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="89" spans="1:15">
       <c r="A89" t="s">
         <v>100</v>
       </c>
@@ -4853,24 +5398,30 @@
       <c r="F89" t="s">
         <v>223</v>
       </c>
-      <c r="G89">
+      <c r="G89" s="3">
+        <v>10</v>
+      </c>
+      <c r="H89" s="3">
+        <v>5</v>
+      </c>
+      <c r="I89">
         <v>8.42</v>
       </c>
-      <c r="H89">
+      <c r="J89">
         <v>214</v>
       </c>
-      <c r="I89" t="s">
+      <c r="K89" t="s">
         <v>231</v>
       </c>
-      <c r="J89" s="2"/>
-      <c r="K89">
+      <c r="L89" s="2"/>
+      <c r="M89">
         <v>70</v>
       </c>
-      <c r="L89" t="s">
+      <c r="N89" t="s">
         <v>236</v>
       </c>
     </row>
-    <row r="90" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="90" spans="1:15">
       <c r="A90" t="s">
         <v>101</v>
       </c>
@@ -4889,27 +5440,33 @@
       <c r="F90" t="s">
         <v>221</v>
       </c>
-      <c r="G90">
+      <c r="G90" s="3">
+        <v>10</v>
+      </c>
+      <c r="H90" s="3">
+        <v>20</v>
+      </c>
+      <c r="I90">
         <v>2.97</v>
       </c>
-      <c r="H90">
+      <c r="J90">
         <v>361</v>
       </c>
-      <c r="I90" t="s">
+      <c r="K90" t="s">
         <v>226</v>
       </c>
-      <c r="J90" s="2"/>
-      <c r="K90">
+      <c r="L90" s="2"/>
+      <c r="M90">
         <v>70</v>
       </c>
-      <c r="L90" t="s">
+      <c r="N90" t="s">
         <v>236</v>
       </c>
-      <c r="M90" t="s">
+      <c r="O90" t="s">
         <v>244</v>
       </c>
     </row>
-    <row r="91" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="91" spans="1:15">
       <c r="A91" t="s">
         <v>102</v>
       </c>
@@ -4928,27 +5485,33 @@
       <c r="F91" t="s">
         <v>222</v>
       </c>
-      <c r="G91">
+      <c r="G91" s="3">
+        <v>20</v>
+      </c>
+      <c r="H91" s="3">
+        <v>5</v>
+      </c>
+      <c r="I91">
         <v>3.31</v>
       </c>
-      <c r="H91">
+      <c r="J91">
         <v>265</v>
       </c>
-      <c r="I91" t="s">
+      <c r="K91" t="s">
         <v>226</v>
       </c>
-      <c r="J91" s="2"/>
-      <c r="K91">
+      <c r="L91" s="2"/>
+      <c r="M91">
         <v>60</v>
       </c>
-      <c r="L91" t="s">
+      <c r="N91" t="s">
         <v>235</v>
       </c>
-      <c r="M91" t="s">
+      <c r="O91" t="s">
         <v>281</v>
       </c>
     </row>
-    <row r="92" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="92" spans="1:15">
       <c r="A92" t="s">
         <v>103</v>
       </c>
@@ -4967,24 +5530,30 @@
       <c r="F92" t="s">
         <v>220</v>
       </c>
-      <c r="G92">
+      <c r="G92" s="3">
+        <v>4</v>
+      </c>
+      <c r="H92" s="3">
+        <v>4</v>
+      </c>
+      <c r="I92">
         <v>8.33</v>
       </c>
-      <c r="H92">
+      <c r="J92">
         <v>60</v>
       </c>
-      <c r="I92" t="s">
+      <c r="K92" t="s">
         <v>226</v>
       </c>
-      <c r="J92" s="2"/>
-      <c r="K92">
+      <c r="L92" s="2"/>
+      <c r="M92">
         <v>50</v>
       </c>
-      <c r="L92" t="s">
+      <c r="N92" t="s">
         <v>236</v>
       </c>
     </row>
-    <row r="93" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="93" spans="1:15">
       <c r="A93" t="s">
         <v>104</v>
       </c>
@@ -5003,27 +5572,33 @@
       <c r="F93" t="s">
         <v>223</v>
       </c>
-      <c r="G93">
+      <c r="G93" s="3">
+        <v>12</v>
+      </c>
+      <c r="H93" s="3">
+        <v>6</v>
+      </c>
+      <c r="I93">
         <v>2.25</v>
       </c>
-      <c r="H93">
+      <c r="J93">
         <v>46</v>
       </c>
-      <c r="I93" t="s">
+      <c r="K93" t="s">
         <v>233</v>
       </c>
-      <c r="J93" s="2"/>
-      <c r="K93">
+      <c r="L93" s="2"/>
+      <c r="M93">
         <v>40</v>
       </c>
-      <c r="L93" t="s">
+      <c r="N93" t="s">
         <v>234</v>
       </c>
-      <c r="M93" t="s">
+      <c r="O93" t="s">
         <v>282</v>
       </c>
     </row>
-    <row r="94" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="94" spans="1:15">
       <c r="A94" t="s">
         <v>105</v>
       </c>
@@ -5042,27 +5617,33 @@
       <c r="F94" t="s">
         <v>223</v>
       </c>
-      <c r="G94">
+      <c r="G94" s="3">
+        <v>6</v>
+      </c>
+      <c r="H94" s="3">
+        <v>3</v>
+      </c>
+      <c r="I94">
         <v>4.79</v>
       </c>
-      <c r="H94">
+      <c r="J94">
         <v>149</v>
       </c>
-      <c r="I94" t="s">
+      <c r="K94" t="s">
         <v>232</v>
       </c>
-      <c r="J94" s="2"/>
-      <c r="K94">
+      <c r="L94" s="2"/>
+      <c r="M94">
         <v>70</v>
       </c>
-      <c r="L94" t="s">
+      <c r="N94" t="s">
         <v>235</v>
       </c>
-      <c r="M94" t="s">
+      <c r="O94" t="s">
         <v>279</v>
       </c>
     </row>
-    <row r="95" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="95" spans="1:15">
       <c r="A95" t="s">
         <v>106</v>
       </c>
@@ -5081,27 +5662,33 @@
       <c r="F95" t="s">
         <v>224</v>
       </c>
-      <c r="G95">
+      <c r="G95" s="3">
+        <v>5</v>
+      </c>
+      <c r="H95" s="3">
+        <v>1</v>
+      </c>
+      <c r="I95">
         <v>3.66</v>
       </c>
-      <c r="H95">
+      <c r="J95">
         <v>246</v>
       </c>
-      <c r="I95" t="s">
+      <c r="K95" t="s">
         <v>231</v>
       </c>
-      <c r="J95" s="2"/>
-      <c r="K95">
+      <c r="L95" s="2"/>
+      <c r="M95">
         <v>50</v>
       </c>
-      <c r="L95" t="s">
+      <c r="N95" t="s">
         <v>234</v>
       </c>
-      <c r="M95" t="s">
+      <c r="O95" t="s">
         <v>249</v>
       </c>
     </row>
-    <row r="96" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="96" spans="1:15">
       <c r="A96" t="s">
         <v>107</v>
       </c>
@@ -5120,24 +5707,30 @@
       <c r="F96" t="s">
         <v>224</v>
       </c>
-      <c r="G96">
+      <c r="G96" s="3">
+        <v>12</v>
+      </c>
+      <c r="H96" s="3">
+        <v>1</v>
+      </c>
+      <c r="I96">
         <v>8.61</v>
       </c>
-      <c r="H96">
+      <c r="J96">
         <v>384</v>
       </c>
-      <c r="I96" t="s">
+      <c r="K96" t="s">
         <v>227</v>
       </c>
-      <c r="J96" s="2"/>
-      <c r="K96">
+      <c r="L96" s="2"/>
+      <c r="M96">
         <v>60</v>
       </c>
-      <c r="L96" t="s">
+      <c r="N96" t="s">
         <v>235</v>
       </c>
     </row>
-    <row r="97" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="97" spans="1:15">
       <c r="A97" t="s">
         <v>108</v>
       </c>
@@ -5156,24 +5749,30 @@
       <c r="F97" t="s">
         <v>222</v>
       </c>
-      <c r="G97">
+      <c r="G97" s="3">
+        <v>8</v>
+      </c>
+      <c r="H97" s="3">
+        <v>2</v>
+      </c>
+      <c r="I97">
         <v>4.71</v>
       </c>
-      <c r="H97">
+      <c r="J97">
         <v>80</v>
       </c>
-      <c r="I97" t="s">
+      <c r="K97" t="s">
         <v>228</v>
       </c>
-      <c r="J97" s="2"/>
-      <c r="K97">
+      <c r="L97" s="2"/>
+      <c r="M97">
         <v>60</v>
       </c>
-      <c r="L97" t="s">
+      <c r="N97" t="s">
         <v>235</v>
       </c>
     </row>
-    <row r="98" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="98" spans="1:15">
       <c r="A98" t="s">
         <v>109</v>
       </c>
@@ -5192,24 +5791,30 @@
       <c r="F98" t="s">
         <v>221</v>
       </c>
-      <c r="G98">
+      <c r="G98" s="3">
+        <v>8</v>
+      </c>
+      <c r="H98" s="3">
+        <v>16</v>
+      </c>
+      <c r="I98">
         <v>7.24</v>
       </c>
-      <c r="H98">
+      <c r="J98">
         <v>497</v>
       </c>
-      <c r="I98" t="s">
+      <c r="K98" t="s">
         <v>226</v>
       </c>
-      <c r="J98" s="2"/>
-      <c r="K98">
+      <c r="L98" s="2"/>
+      <c r="M98">
         <v>50</v>
       </c>
-      <c r="L98" t="s">
+      <c r="N98" t="s">
         <v>234</v>
       </c>
     </row>
-    <row r="99" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="99" spans="1:15">
       <c r="A99" t="s">
         <v>110</v>
       </c>
@@ -5228,27 +5833,33 @@
       <c r="F99" t="s">
         <v>222</v>
       </c>
-      <c r="G99">
+      <c r="G99" s="3">
+        <v>4</v>
+      </c>
+      <c r="H99" s="3">
+        <v>1</v>
+      </c>
+      <c r="I99">
         <v>9.5399999999999991</v>
       </c>
-      <c r="H99">
+      <c r="J99">
         <v>330</v>
       </c>
-      <c r="I99" t="s">
+      <c r="K99" t="s">
         <v>230</v>
       </c>
-      <c r="J99" s="2"/>
-      <c r="K99">
+      <c r="L99" s="2"/>
+      <c r="M99">
         <v>40</v>
       </c>
-      <c r="L99" t="s">
+      <c r="N99" t="s">
         <v>234</v>
       </c>
-      <c r="M99" t="s">
+      <c r="O99" t="s">
         <v>283</v>
       </c>
     </row>
-    <row r="100" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="100" spans="1:15">
       <c r="A100" t="s">
         <v>111</v>
       </c>
@@ -5267,24 +5878,30 @@
       <c r="F100" t="s">
         <v>222</v>
       </c>
-      <c r="G100">
+      <c r="G100" s="3">
+        <v>12</v>
+      </c>
+      <c r="H100" s="3">
+        <v>3</v>
+      </c>
+      <c r="I100">
         <v>6.81</v>
       </c>
-      <c r="H100">
+      <c r="J100">
         <v>78</v>
       </c>
-      <c r="I100" t="s">
+      <c r="K100" t="s">
         <v>228</v>
       </c>
-      <c r="J100" s="2"/>
-      <c r="K100">
+      <c r="L100" s="2"/>
+      <c r="M100">
         <v>50</v>
       </c>
-      <c r="L100" t="s">
+      <c r="N100" t="s">
         <v>236</v>
       </c>
     </row>
-    <row r="101" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="101" spans="1:15">
       <c r="A101" t="s">
         <v>112</v>
       </c>
@@ -5303,24 +5920,30 @@
       <c r="F101" t="s">
         <v>223</v>
       </c>
-      <c r="G101">
+      <c r="G101" s="3">
+        <v>12</v>
+      </c>
+      <c r="H101" s="3">
+        <v>6</v>
+      </c>
+      <c r="I101">
         <v>6.1</v>
       </c>
-      <c r="H101">
+      <c r="J101">
         <v>269</v>
       </c>
-      <c r="I101" t="s">
+      <c r="K101" t="s">
         <v>230</v>
       </c>
-      <c r="J101" s="2"/>
-      <c r="K101">
+      <c r="L101" s="2"/>
+      <c r="M101">
         <v>80</v>
       </c>
-      <c r="L101" t="s">
+      <c r="N101" t="s">
         <v>234</v>
       </c>
     </row>
-    <row r="102" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="102" spans="1:15">
       <c r="A102" t="s">
         <v>113</v>
       </c>
@@ -5339,27 +5962,33 @@
       <c r="F102" t="s">
         <v>223</v>
       </c>
-      <c r="G102">
+      <c r="G102" s="3">
+        <v>12</v>
+      </c>
+      <c r="H102" s="3">
+        <v>6</v>
+      </c>
+      <c r="I102">
         <v>7.7</v>
       </c>
-      <c r="H102">
+      <c r="J102">
         <v>391</v>
       </c>
-      <c r="I102" t="s">
+      <c r="K102" t="s">
         <v>233</v>
       </c>
-      <c r="J102" s="2"/>
-      <c r="K102">
+      <c r="L102" s="2"/>
+      <c r="M102">
         <v>60</v>
       </c>
-      <c r="L102" t="s">
+      <c r="N102" t="s">
         <v>235</v>
       </c>
-      <c r="M102" t="s">
+      <c r="O102" t="s">
         <v>261</v>
       </c>
     </row>
-    <row r="103" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="103" spans="1:15">
       <c r="A103" t="s">
         <v>114</v>
       </c>
@@ -5378,27 +6007,33 @@
       <c r="F103" t="s">
         <v>221</v>
       </c>
-      <c r="G103">
+      <c r="G103" s="3">
+        <v>12</v>
+      </c>
+      <c r="H103" s="3">
+        <v>24</v>
+      </c>
+      <c r="I103">
         <v>6.14</v>
       </c>
-      <c r="H103">
+      <c r="J103">
         <v>395</v>
       </c>
-      <c r="I103" t="s">
+      <c r="K103" t="s">
         <v>225</v>
       </c>
-      <c r="J103" s="2"/>
-      <c r="K103">
+      <c r="L103" s="2"/>
+      <c r="M103">
         <v>40</v>
       </c>
-      <c r="L103" t="s">
+      <c r="N103" t="s">
         <v>236</v>
       </c>
-      <c r="M103" t="s">
+      <c r="O103" t="s">
         <v>258</v>
       </c>
     </row>
-    <row r="104" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="104" spans="1:15">
       <c r="A104" t="s">
         <v>115</v>
       </c>
@@ -5417,27 +6052,33 @@
       <c r="F104" t="s">
         <v>223</v>
       </c>
-      <c r="G104">
+      <c r="G104" s="3">
+        <v>12</v>
+      </c>
+      <c r="H104" s="3">
+        <v>6</v>
+      </c>
+      <c r="I104">
         <v>9.9</v>
       </c>
-      <c r="H104">
+      <c r="J104">
         <v>270</v>
       </c>
-      <c r="I104" t="s">
+      <c r="K104" t="s">
         <v>233</v>
       </c>
-      <c r="J104" s="2"/>
-      <c r="K104">
+      <c r="L104" s="2"/>
+      <c r="M104">
         <v>80</v>
       </c>
-      <c r="L104" t="s">
+      <c r="N104" t="s">
         <v>236</v>
       </c>
-      <c r="M104" t="s">
+      <c r="O104" t="s">
         <v>282</v>
       </c>
     </row>
-    <row r="105" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="105" spans="1:15">
       <c r="A105" t="s">
         <v>116</v>
       </c>
@@ -5456,27 +6097,33 @@
       <c r="F105" t="s">
         <v>222</v>
       </c>
-      <c r="G105">
+      <c r="G105" s="3">
+        <v>12</v>
+      </c>
+      <c r="H105" s="3">
+        <v>3</v>
+      </c>
+      <c r="I105">
         <v>4.0199999999999996</v>
       </c>
-      <c r="H105">
+      <c r="J105">
         <v>359</v>
       </c>
-      <c r="I105" t="s">
+      <c r="K105" t="s">
         <v>228</v>
       </c>
-      <c r="J105" s="2"/>
-      <c r="K105">
+      <c r="L105" s="2"/>
+      <c r="M105">
         <v>80</v>
       </c>
-      <c r="L105" t="s">
+      <c r="N105" t="s">
         <v>236</v>
       </c>
-      <c r="M105" t="s">
+      <c r="O105" t="s">
         <v>247</v>
       </c>
     </row>
-    <row r="106" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="106" spans="1:15">
       <c r="A106" t="s">
         <v>117</v>
       </c>
@@ -5495,24 +6142,30 @@
       <c r="F106" t="s">
         <v>222</v>
       </c>
-      <c r="G106">
+      <c r="G106" s="3">
+        <v>12</v>
+      </c>
+      <c r="H106" s="3">
+        <v>3</v>
+      </c>
+      <c r="I106">
         <v>9.18</v>
       </c>
-      <c r="H106">
+      <c r="J106">
         <v>482</v>
       </c>
-      <c r="I106" t="s">
+      <c r="K106" t="s">
         <v>228</v>
       </c>
-      <c r="J106" s="2"/>
-      <c r="K106">
+      <c r="L106" s="2"/>
+      <c r="M106">
         <v>40</v>
       </c>
-      <c r="L106" t="s">
+      <c r="N106" t="s">
         <v>234</v>
       </c>
     </row>
-    <row r="107" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="107" spans="1:15">
       <c r="A107" t="s">
         <v>118</v>
       </c>
@@ -5531,24 +6184,30 @@
       <c r="F107" t="s">
         <v>220</v>
       </c>
-      <c r="G107">
+      <c r="G107" s="3">
+        <v>12</v>
+      </c>
+      <c r="H107" s="3">
+        <v>12</v>
+      </c>
+      <c r="I107">
         <v>1.79</v>
       </c>
-      <c r="H107">
+      <c r="J107">
         <v>217</v>
       </c>
-      <c r="I107" t="s">
+      <c r="K107" t="s">
         <v>232</v>
       </c>
-      <c r="J107" s="2"/>
-      <c r="K107">
+      <c r="L107" s="2"/>
+      <c r="M107">
         <v>60</v>
       </c>
-      <c r="L107" t="s">
+      <c r="N107" t="s">
         <v>235</v>
       </c>
     </row>
-    <row r="108" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="108" spans="1:15">
       <c r="A108" t="s">
         <v>119</v>
       </c>
@@ -5567,24 +6226,30 @@
       <c r="F108" t="s">
         <v>224</v>
       </c>
-      <c r="G108">
+      <c r="G108" s="3">
+        <v>8</v>
+      </c>
+      <c r="H108" s="3">
+        <v>1</v>
+      </c>
+      <c r="I108">
         <v>4.5999999999999996</v>
       </c>
-      <c r="H108">
+      <c r="J108">
         <v>368</v>
       </c>
-      <c r="I108" t="s">
+      <c r="K108" t="s">
         <v>231</v>
       </c>
-      <c r="J108" s="2"/>
-      <c r="K108">
+      <c r="L108" s="2"/>
+      <c r="M108">
         <v>80</v>
       </c>
-      <c r="L108" t="s">
+      <c r="N108" t="s">
         <v>234</v>
       </c>
     </row>
-    <row r="109" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="109" spans="1:15">
       <c r="A109" t="s">
         <v>120</v>
       </c>
@@ -5603,27 +6268,33 @@
       <c r="F109" t="s">
         <v>223</v>
       </c>
-      <c r="G109">
+      <c r="G109" s="3">
+        <v>4</v>
+      </c>
+      <c r="H109" s="3">
+        <v>2</v>
+      </c>
+      <c r="I109">
         <v>1.32</v>
       </c>
-      <c r="H109">
+      <c r="J109">
         <v>278</v>
       </c>
-      <c r="I109" t="s">
+      <c r="K109" t="s">
         <v>226</v>
       </c>
-      <c r="J109" s="2"/>
-      <c r="K109">
+      <c r="L109" s="2"/>
+      <c r="M109">
         <v>80</v>
       </c>
-      <c r="L109" t="s">
+      <c r="N109" t="s">
         <v>236</v>
       </c>
-      <c r="M109" t="s">
+      <c r="O109" t="s">
         <v>244</v>
       </c>
     </row>
-    <row r="110" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="110" spans="1:15">
       <c r="A110" t="s">
         <v>121</v>
       </c>
@@ -5642,24 +6313,30 @@
       <c r="F110" t="s">
         <v>222</v>
       </c>
-      <c r="G110">
+      <c r="G110" s="3">
+        <v>24</v>
+      </c>
+      <c r="H110" s="3">
+        <v>6</v>
+      </c>
+      <c r="I110">
         <v>2.38</v>
       </c>
-      <c r="H110">
+      <c r="J110">
         <v>179</v>
       </c>
-      <c r="I110" t="s">
+      <c r="K110" t="s">
         <v>226</v>
       </c>
-      <c r="J110" s="2"/>
-      <c r="K110">
+      <c r="L110" s="2"/>
+      <c r="M110">
         <v>60</v>
       </c>
-      <c r="L110" t="s">
+      <c r="N110" t="s">
         <v>235</v>
       </c>
     </row>
-    <row r="111" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="111" spans="1:15">
       <c r="A111" t="s">
         <v>122</v>
       </c>
@@ -5678,27 +6355,33 @@
       <c r="F111" t="s">
         <v>220</v>
       </c>
-      <c r="G111">
+      <c r="G111" s="3">
+        <v>25</v>
+      </c>
+      <c r="H111" s="3">
+        <v>25</v>
+      </c>
+      <c r="I111">
         <v>1.81</v>
       </c>
-      <c r="H111">
+      <c r="J111">
         <v>124</v>
       </c>
-      <c r="I111" t="s">
+      <c r="K111" t="s">
         <v>231</v>
       </c>
-      <c r="J111" s="2"/>
-      <c r="K111">
+      <c r="L111" s="2"/>
+      <c r="M111">
         <v>60</v>
       </c>
-      <c r="L111" t="s">
+      <c r="N111" t="s">
         <v>234</v>
       </c>
-      <c r="M111" t="s">
+      <c r="O111" t="s">
         <v>273</v>
       </c>
     </row>
-    <row r="112" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="112" spans="1:15">
       <c r="A112" t="s">
         <v>123</v>
       </c>
@@ -5717,27 +6400,33 @@
       <c r="F112" t="s">
         <v>224</v>
       </c>
-      <c r="G112">
+      <c r="G112" s="3">
+        <v>10</v>
+      </c>
+      <c r="H112" s="3">
+        <v>1</v>
+      </c>
+      <c r="I112">
         <v>1.77</v>
       </c>
-      <c r="H112">
+      <c r="J112">
         <v>491</v>
       </c>
-      <c r="I112" t="s">
+      <c r="K112" t="s">
         <v>228</v>
       </c>
-      <c r="J112" s="2"/>
-      <c r="K112">
+      <c r="L112" s="2"/>
+      <c r="M112">
         <v>70</v>
       </c>
-      <c r="L112" t="s">
+      <c r="N112" t="s">
         <v>234</v>
       </c>
-      <c r="M112" t="s">
+      <c r="O112" t="s">
         <v>247</v>
       </c>
     </row>
-    <row r="113" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="113" spans="1:15">
       <c r="A113" t="s">
         <v>124</v>
       </c>
@@ -5756,27 +6445,33 @@
       <c r="F113" t="s">
         <v>222</v>
       </c>
-      <c r="G113">
+      <c r="G113" s="3">
+        <v>12</v>
+      </c>
+      <c r="H113" s="3">
+        <v>3</v>
+      </c>
+      <c r="I113">
         <v>1.54</v>
       </c>
-      <c r="H113">
+      <c r="J113">
         <v>320</v>
       </c>
-      <c r="I113" t="s">
+      <c r="K113" t="s">
         <v>232</v>
       </c>
-      <c r="J113" s="2"/>
-      <c r="K113">
+      <c r="L113" s="2"/>
+      <c r="M113">
         <v>80</v>
       </c>
-      <c r="L113" t="s">
+      <c r="N113" t="s">
         <v>234</v>
       </c>
-      <c r="M113" t="s">
+      <c r="O113" t="s">
         <v>282</v>
       </c>
     </row>
-    <row r="114" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="114" spans="1:15">
       <c r="A114" t="s">
         <v>125</v>
       </c>
@@ -5795,27 +6490,33 @@
       <c r="F114" t="s">
         <v>222</v>
       </c>
-      <c r="G114">
+      <c r="G114" s="3">
+        <v>8</v>
+      </c>
+      <c r="H114" s="3">
+        <v>2</v>
+      </c>
+      <c r="I114">
         <v>2.41</v>
       </c>
-      <c r="H114">
+      <c r="J114">
         <v>323</v>
       </c>
-      <c r="I114" t="s">
+      <c r="K114" t="s">
         <v>225</v>
       </c>
-      <c r="J114" s="2"/>
-      <c r="K114">
+      <c r="L114" s="2"/>
+      <c r="M114">
         <v>40</v>
       </c>
-      <c r="L114" t="s">
+      <c r="N114" t="s">
         <v>236</v>
       </c>
-      <c r="M114" t="s">
+      <c r="O114" t="s">
         <v>284</v>
       </c>
     </row>
-    <row r="115" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="115" spans="1:15">
       <c r="A115" t="s">
         <v>126</v>
       </c>
@@ -5834,27 +6535,33 @@
       <c r="F115" t="s">
         <v>220</v>
       </c>
-      <c r="G115">
+      <c r="G115" s="3">
+        <v>8</v>
+      </c>
+      <c r="H115" s="3">
+        <v>8</v>
+      </c>
+      <c r="I115">
         <v>8.84</v>
       </c>
-      <c r="H115">
+      <c r="J115">
         <v>50</v>
       </c>
-      <c r="I115" t="s">
+      <c r="K115" t="s">
         <v>232</v>
       </c>
-      <c r="J115" s="2"/>
-      <c r="K115">
+      <c r="L115" s="2"/>
+      <c r="M115">
         <v>50</v>
       </c>
-      <c r="L115" t="s">
+      <c r="N115" t="s">
         <v>235</v>
       </c>
-      <c r="M115" t="s">
+      <c r="O115" t="s">
         <v>285</v>
       </c>
     </row>
-    <row r="116" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="116" spans="1:15">
       <c r="A116" t="s">
         <v>127</v>
       </c>
@@ -5873,27 +6580,33 @@
       <c r="F116" t="s">
         <v>220</v>
       </c>
-      <c r="G116">
+      <c r="G116" s="3">
+        <v>5</v>
+      </c>
+      <c r="H116" s="3">
+        <v>5</v>
+      </c>
+      <c r="I116">
         <v>6.54</v>
       </c>
-      <c r="H116">
+      <c r="J116">
         <v>132</v>
       </c>
-      <c r="I116" t="s">
+      <c r="K116" t="s">
         <v>233</v>
       </c>
-      <c r="J116" s="2"/>
-      <c r="K116">
+      <c r="L116" s="2"/>
+      <c r="M116">
         <v>40</v>
       </c>
-      <c r="L116" t="s">
+      <c r="N116" t="s">
         <v>236</v>
       </c>
-      <c r="M116" t="s">
+      <c r="O116" t="s">
         <v>286</v>
       </c>
     </row>
-    <row r="117" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="117" spans="1:15">
       <c r="A117" t="s">
         <v>128</v>
       </c>
@@ -5912,27 +6625,33 @@
       <c r="F117" t="s">
         <v>222</v>
       </c>
-      <c r="G117">
+      <c r="G117" s="3">
+        <v>12</v>
+      </c>
+      <c r="H117" s="3">
+        <v>3</v>
+      </c>
+      <c r="I117">
         <v>9.66</v>
       </c>
-      <c r="H117">
+      <c r="J117">
         <v>338</v>
       </c>
-      <c r="I117" t="s">
+      <c r="K117" t="s">
         <v>233</v>
       </c>
-      <c r="J117" s="2"/>
-      <c r="K117">
+      <c r="L117" s="2"/>
+      <c r="M117">
         <v>70</v>
       </c>
-      <c r="L117" t="s">
+      <c r="N117" t="s">
         <v>234</v>
       </c>
-      <c r="M117" t="s">
+      <c r="O117" t="s">
         <v>248</v>
       </c>
     </row>
-    <row r="118" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="118" spans="1:15">
       <c r="A118" t="s">
         <v>129</v>
       </c>
@@ -5951,27 +6670,33 @@
       <c r="F118" t="s">
         <v>222</v>
       </c>
-      <c r="G118">
+      <c r="G118" s="3">
+        <v>12</v>
+      </c>
+      <c r="H118" s="3">
+        <v>3</v>
+      </c>
+      <c r="I118">
         <v>1.51</v>
       </c>
-      <c r="H118">
+      <c r="J118">
         <v>139</v>
       </c>
-      <c r="I118" t="s">
+      <c r="K118" t="s">
         <v>230</v>
       </c>
-      <c r="J118" s="2"/>
-      <c r="K118">
+      <c r="L118" s="2"/>
+      <c r="M118">
         <v>60</v>
       </c>
-      <c r="L118" t="s">
+      <c r="N118" t="s">
         <v>235</v>
       </c>
-      <c r="M118" t="s">
+      <c r="O118" t="s">
         <v>260</v>
       </c>
     </row>
-    <row r="119" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="119" spans="1:15">
       <c r="A119" t="s">
         <v>130</v>
       </c>
@@ -5990,27 +6715,33 @@
       <c r="F119" t="s">
         <v>224</v>
       </c>
-      <c r="G119">
+      <c r="G119" s="3">
+        <v>12</v>
+      </c>
+      <c r="H119" s="3">
+        <v>1</v>
+      </c>
+      <c r="I119">
         <v>3.26</v>
       </c>
-      <c r="H119">
+      <c r="J119">
         <v>490</v>
       </c>
-      <c r="I119" t="s">
+      <c r="K119" t="s">
         <v>230</v>
       </c>
-      <c r="J119" s="2"/>
-      <c r="K119">
+      <c r="L119" s="2"/>
+      <c r="M119">
         <v>50</v>
       </c>
-      <c r="L119" t="s">
+      <c r="N119" t="s">
         <v>235</v>
       </c>
-      <c r="M119" t="s">
+      <c r="O119" t="s">
         <v>247</v>
       </c>
     </row>
-    <row r="120" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="120" spans="1:15">
       <c r="A120" t="s">
         <v>131</v>
       </c>
@@ -6029,27 +6760,33 @@
       <c r="F120" t="s">
         <v>223</v>
       </c>
-      <c r="G120">
+      <c r="G120" s="3">
+        <v>12</v>
+      </c>
+      <c r="H120" s="3">
+        <v>6</v>
+      </c>
+      <c r="I120">
         <v>7.95</v>
       </c>
-      <c r="H120">
+      <c r="J120">
         <v>103</v>
       </c>
-      <c r="I120" t="s">
+      <c r="K120" t="s">
         <v>231</v>
       </c>
-      <c r="J120" s="2"/>
-      <c r="K120">
+      <c r="L120" s="2"/>
+      <c r="M120">
         <v>60</v>
       </c>
-      <c r="L120" t="s">
+      <c r="N120" t="s">
         <v>234</v>
       </c>
-      <c r="M120" t="s">
+      <c r="O120" t="s">
         <v>287</v>
       </c>
     </row>
-    <row r="121" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="121" spans="1:15">
       <c r="A121" t="s">
         <v>132</v>
       </c>
@@ -6068,25 +6805,55 @@
       <c r="F121" t="s">
         <v>224</v>
       </c>
-      <c r="G121">
+      <c r="G121" s="3">
+        <v>12</v>
+      </c>
+      <c r="H121" s="3">
+        <v>1</v>
+      </c>
+      <c r="I121">
         <v>3.46</v>
       </c>
-      <c r="H121">
+      <c r="J121">
         <v>406</v>
       </c>
-      <c r="I121" t="s">
+      <c r="K121" t="s">
         <v>231</v>
       </c>
-      <c r="J121" s="2"/>
-      <c r="K121">
+      <c r="L121" s="2"/>
+      <c r="M121">
         <v>60</v>
       </c>
-      <c r="L121" t="s">
+      <c r="N121" t="s">
         <v>236</v>
       </c>
-      <c r="M121" t="s">
+      <c r="O121" t="s">
         <v>247</v>
       </c>
+    </row>
+    <row r="122" spans="1:15">
+      <c r="G122" s="3"/>
+      <c r="H122" s="3"/>
+    </row>
+    <row r="123" spans="1:15">
+      <c r="G123" s="3"/>
+      <c r="H123" s="3"/>
+    </row>
+    <row r="124" spans="1:15">
+      <c r="G124" s="3"/>
+      <c r="H124" s="3"/>
+    </row>
+    <row r="125" spans="1:15">
+      <c r="G125" s="3"/>
+      <c r="H125" s="3"/>
+    </row>
+    <row r="126" spans="1:15">
+      <c r="G126" s="3"/>
+      <c r="H126" s="3"/>
+    </row>
+    <row r="127" spans="1:15">
+      <c r="G127" s="3"/>
+      <c r="H127" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
